--- a/resources/database.xlsx
+++ b/resources/database.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="474">
   <si>
     <t>Projects</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>opennlp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence </t>
   </si>
   <si>
     <t>zookeeper</t>
@@ -1804,8 +1801,8 @@
   <dimension ref="A1:BC391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B282" sqref="B282"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5004,8 +5001,8 @@
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
+      <c r="B20" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5167,7 +5164,7 @@
     </row>
     <row r="21" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>63</v>
@@ -5332,7 +5329,7 @@
     </row>
     <row r="22" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>65</v>
@@ -5497,7 +5494,7 @@
     </row>
     <row r="23" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>57</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="24" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>65</v>
@@ -5827,7 +5824,7 @@
     </row>
     <row r="25" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>63</v>
@@ -5992,7 +5989,7 @@
     </row>
     <row r="26" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>74</v>
@@ -6157,7 +6154,7 @@
     </row>
     <row r="27" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -6322,7 +6319,7 @@
     </row>
     <row r="28" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>57</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="29" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>55</v>
@@ -6652,7 +6649,7 @@
     </row>
     <row r="30" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>63</v>
@@ -6817,7 +6814,7 @@
     </row>
     <row r="31" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>63</v>
@@ -6982,10 +6979,10 @@
     </row>
     <row r="32" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -7147,7 +7144,7 @@
     </row>
     <row r="33" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>55</v>
@@ -7312,7 +7309,7 @@
     </row>
     <row r="34" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>65</v>
@@ -7477,7 +7474,7 @@
     </row>
     <row r="35" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>65</v>
@@ -7642,7 +7639,7 @@
     </row>
     <row r="36" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>55</v>
@@ -7807,10 +7804,10 @@
     </row>
     <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -7972,7 +7969,7 @@
     </row>
     <row r="38" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>59</v>
@@ -8137,7 +8134,7 @@
     </row>
     <row r="39" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>55</v>
@@ -8302,7 +8299,7 @@
     </row>
     <row r="40" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>55</v>
@@ -8467,7 +8464,7 @@
     </row>
     <row r="41" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>55</v>
@@ -8632,7 +8629,7 @@
     </row>
     <row r="42" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>63</v>
@@ -8797,7 +8794,7 @@
     </row>
     <row r="43" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>63</v>
@@ -8962,7 +8959,7 @@
     </row>
     <row r="44" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>65</v>
@@ -9127,7 +9124,7 @@
     </row>
     <row r="45" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>59</v>
@@ -9292,7 +9289,7 @@
     </row>
     <row r="46" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>74</v>
@@ -9457,7 +9454,7 @@
     </row>
     <row r="47" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>55</v>
@@ -9622,7 +9619,7 @@
     </row>
     <row r="48" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>79</v>
@@ -9787,10 +9784,10 @@
     </row>
     <row r="49" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -9952,7 +9949,7 @@
     </row>
     <row r="50" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>55</v>
@@ -10117,7 +10114,7 @@
     </row>
     <row r="51" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>55</v>
@@ -10282,7 +10279,7 @@
     </row>
     <row r="52" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>65</v>
@@ -10447,10 +10444,10 @@
     </row>
     <row r="53" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -10612,10 +10609,10 @@
     </row>
     <row r="54" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -10777,7 +10774,7 @@
     </row>
     <row r="55" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>65</v>
@@ -10942,7 +10939,7 @@
     </row>
     <row r="56" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>59</v>
@@ -11107,10 +11104,10 @@
     </row>
     <row r="57" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
@@ -11272,7 +11269,7 @@
     </row>
     <row r="58" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>69</v>
@@ -11437,7 +11434,7 @@
     </row>
     <row r="59" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>65</v>
@@ -11602,7 +11599,7 @@
     </row>
     <row r="60" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>65</v>
@@ -11767,7 +11764,7 @@
     </row>
     <row r="61" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>74</v>
@@ -11932,7 +11929,7 @@
     </row>
     <row r="62" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>63</v>
@@ -12097,7 +12094,7 @@
     </row>
     <row r="63" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>76</v>
@@ -12262,7 +12259,7 @@
     </row>
     <row r="64" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>65</v>
@@ -12427,7 +12424,7 @@
     </row>
     <row r="65" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>57</v>
@@ -12592,7 +12589,7 @@
     </row>
     <row r="66" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>63</v>
@@ -12757,10 +12754,10 @@
     </row>
     <row r="67" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -12922,7 +12919,7 @@
     </row>
     <row r="68" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>63</v>
@@ -13087,7 +13084,7 @@
     </row>
     <row r="69" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>61</v>
@@ -13252,7 +13249,7 @@
     </row>
     <row r="70" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>65</v>
@@ -13417,7 +13414,7 @@
     </row>
     <row r="71" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>65</v>
@@ -13582,7 +13579,7 @@
     </row>
     <row r="72" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>74</v>
@@ -13747,7 +13744,7 @@
     </row>
     <row r="73" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>65</v>
@@ -13912,10 +13909,10 @@
     </row>
     <row r="74" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -14077,10 +14074,10 @@
     </row>
     <row r="75" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="7">
         <v>0</v>
@@ -14242,10 +14239,10 @@
     </row>
     <row r="76" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="7">
         <v>0</v>
@@ -14407,7 +14404,7 @@
     </row>
     <row r="77" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>55</v>
@@ -14572,10 +14569,10 @@
     </row>
     <row r="78" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="7">
         <v>0</v>
@@ -14737,7 +14734,7 @@
     </row>
     <row r="79" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>65</v>
@@ -14902,7 +14899,7 @@
     </row>
     <row r="80" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>74</v>
@@ -15067,7 +15064,7 @@
     </row>
     <row r="81" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>55</v>
@@ -15232,7 +15229,7 @@
     </row>
     <row r="82" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>55</v>
@@ -15397,7 +15394,7 @@
     </row>
     <row r="83" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>65</v>
@@ -15562,10 +15559,10 @@
     </row>
     <row r="84" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7">
         <v>0</v>
@@ -15727,7 +15724,7 @@
     </row>
     <row r="85" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>61</v>
@@ -15892,7 +15889,7 @@
     </row>
     <row r="86" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>76</v>
@@ -16057,7 +16054,7 @@
     </row>
     <row r="87" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>55</v>
@@ -16222,7 +16219,7 @@
     </row>
     <row r="88" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>61</v>
@@ -16387,7 +16384,7 @@
     </row>
     <row r="89" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>59</v>
@@ -16552,7 +16549,7 @@
     </row>
     <row r="90" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>65</v>
@@ -16717,7 +16714,7 @@
     </row>
     <row r="91" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>55</v>
@@ -16882,7 +16879,7 @@
     </row>
     <row r="92" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>55</v>
@@ -17047,10 +17044,10 @@
     </row>
     <row r="93" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>122</v>
+        <v>162</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C93" s="7">
         <v>0</v>
@@ -17212,10 +17209,10 @@
     </row>
     <row r="94" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C94" s="7">
         <v>0</v>
@@ -17377,7 +17374,7 @@
     </row>
     <row r="95" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>55</v>
@@ -17542,7 +17539,7 @@
     </row>
     <row r="96" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>74</v>
@@ -17707,7 +17704,7 @@
     </row>
     <row r="97" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>65</v>
@@ -17872,7 +17869,7 @@
     </row>
     <row r="98" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>65</v>
@@ -18037,10 +18034,10 @@
     </row>
     <row r="99" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="C99" s="7">
         <v>0</v>
@@ -18202,10 +18199,10 @@
     </row>
     <row r="100" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="7">
         <v>0</v>
@@ -18367,7 +18364,7 @@
     </row>
     <row r="101" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>57</v>
@@ -18532,7 +18529,7 @@
     </row>
     <row r="102" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>65</v>
@@ -18697,7 +18694,7 @@
     </row>
     <row r="103" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>63</v>
@@ -18862,7 +18859,7 @@
     </row>
     <row r="104" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>57</v>
@@ -19027,7 +19024,7 @@
     </row>
     <row r="105" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>65</v>
@@ -19192,7 +19189,7 @@
     </row>
     <row r="106" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>69</v>
@@ -19522,7 +19519,7 @@
     </row>
     <row r="108" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>63</v>
@@ -19687,7 +19684,7 @@
     </row>
     <row r="109" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>65</v>
@@ -19852,7 +19849,7 @@
     </row>
     <row r="110" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>65</v>
@@ -20017,7 +20014,7 @@
     </row>
     <row r="111" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>55</v>
@@ -20182,10 +20179,10 @@
     </row>
     <row r="112" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" s="7">
         <v>0</v>
@@ -20347,7 +20344,7 @@
     </row>
     <row r="113" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>55</v>
@@ -20512,7 +20509,7 @@
     </row>
     <row r="114" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>63</v>
@@ -20677,10 +20674,10 @@
     </row>
     <row r="115" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" s="7">
         <v>0</v>
@@ -20842,10 +20839,10 @@
     </row>
     <row r="116" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116" s="7">
         <v>0</v>
@@ -21007,7 +21004,7 @@
     </row>
     <row r="117" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>76</v>
@@ -21172,10 +21169,10 @@
     </row>
     <row r="118" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" s="7">
         <v>0</v>
@@ -21337,10 +21334,10 @@
     </row>
     <row r="119" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C119" s="7">
         <v>0</v>
@@ -21502,7 +21499,7 @@
     </row>
     <row r="120" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>65</v>
@@ -21667,7 +21664,7 @@
     </row>
     <row r="121" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>55</v>
@@ -21832,10 +21829,10 @@
     </row>
     <row r="122" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C122" s="7">
         <v>0</v>
@@ -21997,7 +21994,7 @@
     </row>
     <row r="123" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>55</v>
@@ -22162,7 +22159,7 @@
     </row>
     <row r="124" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>63</v>
@@ -22327,7 +22324,7 @@
     </row>
     <row r="125" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>63</v>
@@ -22492,7 +22489,7 @@
     </row>
     <row r="126" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>65</v>
@@ -22657,7 +22654,7 @@
     </row>
     <row r="127" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>55</v>
@@ -22822,7 +22819,7 @@
     </row>
     <row r="128" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>65</v>
@@ -22987,7 +22984,7 @@
     </row>
     <row r="129" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>61</v>
@@ -23152,7 +23149,7 @@
     </row>
     <row r="130" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>55</v>
@@ -23317,10 +23314,10 @@
     </row>
     <row r="131" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" s="7">
         <v>0</v>
@@ -23482,7 +23479,7 @@
     </row>
     <row r="132" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>55</v>
@@ -23647,10 +23644,10 @@
     </row>
     <row r="133" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C133" s="7">
         <v>0</v>
@@ -23812,7 +23809,7 @@
     </row>
     <row r="134" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>76</v>
@@ -23977,7 +23974,7 @@
     </row>
     <row r="135" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>55</v>
@@ -24142,7 +24139,7 @@
     </row>
     <row r="136" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>65</v>
@@ -24307,7 +24304,7 @@
     </row>
     <row r="137" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>55</v>
@@ -24472,10 +24469,10 @@
     </row>
     <row r="138" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="7">
         <v>0</v>
@@ -24637,7 +24634,7 @@
     </row>
     <row r="139" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>57</v>
@@ -24802,7 +24799,7 @@
     </row>
     <row r="140" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>55</v>
@@ -24967,7 +24964,7 @@
     </row>
     <row r="141" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>55</v>
@@ -25132,7 +25129,7 @@
     </row>
     <row r="142" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>65</v>
@@ -25297,7 +25294,7 @@
     </row>
     <row r="143" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>55</v>
@@ -25462,7 +25459,7 @@
     </row>
     <row r="144" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>55</v>
@@ -25627,7 +25624,7 @@
     </row>
     <row r="145" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>65</v>
@@ -25792,7 +25789,7 @@
     </row>
     <row r="146" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>79</v>
@@ -25957,10 +25954,10 @@
     </row>
     <row r="147" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C147" s="7">
         <v>0</v>
@@ -26122,10 +26119,10 @@
     </row>
     <row r="148" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C148" s="7">
         <v>0</v>
@@ -26287,7 +26284,7 @@
     </row>
     <row r="149" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>65</v>
@@ -26452,7 +26449,7 @@
     </row>
     <row r="150" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>65</v>
@@ -26617,7 +26614,7 @@
     </row>
     <row r="151" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>65</v>
@@ -26782,7 +26779,7 @@
     </row>
     <row r="152" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>61</v>
@@ -26947,7 +26944,7 @@
     </row>
     <row r="153" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>55</v>
@@ -27112,7 +27109,7 @@
     </row>
     <row r="154" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>65</v>
@@ -27277,7 +27274,7 @@
     </row>
     <row r="155" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>55</v>
@@ -27442,7 +27439,7 @@
     </row>
     <row r="156" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>55</v>
@@ -27607,10 +27604,10 @@
     </row>
     <row r="157" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C157" s="7">
         <v>0</v>
@@ -27772,7 +27769,7 @@
     </row>
     <row r="158" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>55</v>
@@ -27937,10 +27934,10 @@
     </row>
     <row r="159" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C159" s="7">
         <v>0</v>
@@ -28102,7 +28099,7 @@
     </row>
     <row r="160" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>55</v>
@@ -28267,7 +28264,7 @@
     </row>
     <row r="161" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>55</v>
@@ -28432,7 +28429,7 @@
     </row>
     <row r="162" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>55</v>
@@ -28597,7 +28594,7 @@
     </row>
     <row r="163" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>55</v>
@@ -28762,7 +28759,7 @@
     </row>
     <row r="164" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>65</v>
@@ -28927,7 +28924,7 @@
     </row>
     <row r="165" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>69</v>
@@ -29092,7 +29089,7 @@
     </row>
     <row r="166" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>59</v>
@@ -29257,7 +29254,7 @@
     </row>
     <row r="167" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>65</v>
@@ -29422,7 +29419,7 @@
     </row>
     <row r="168" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>55</v>
@@ -29587,7 +29584,7 @@
     </row>
     <row r="169" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>65</v>
@@ -29752,7 +29749,7 @@
     </row>
     <row r="170" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>55</v>
@@ -29917,10 +29914,10 @@
     </row>
     <row r="171" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C171" s="7">
         <v>0</v>
@@ -30082,10 +30079,10 @@
     </row>
     <row r="172" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C172" s="7">
         <v>0</v>
@@ -30247,7 +30244,7 @@
     </row>
     <row r="173" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>59</v>
@@ -30412,7 +30409,7 @@
     </row>
     <row r="174" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>65</v>
@@ -30577,7 +30574,7 @@
     </row>
     <row r="175" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>76</v>
@@ -30742,10 +30739,10 @@
     </row>
     <row r="176" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C176" s="7">
         <v>0</v>
@@ -30907,7 +30904,7 @@
     </row>
     <row r="177" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>55</v>
@@ -31072,7 +31069,7 @@
     </row>
     <row r="178" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>63</v>
@@ -31237,10 +31234,10 @@
     </row>
     <row r="179" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C179" s="7">
         <v>0</v>
@@ -31402,7 +31399,7 @@
     </row>
     <row r="180" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>74</v>
@@ -31567,7 +31564,7 @@
     </row>
     <row r="181" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>74</v>
@@ -31732,7 +31729,7 @@
     </row>
     <row r="182" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>57</v>
@@ -31897,10 +31894,10 @@
     </row>
     <row r="183" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C183" s="7">
         <v>0</v>
@@ -32062,7 +32059,7 @@
     </row>
     <row r="184" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>55</v>
@@ -32227,7 +32224,7 @@
     </row>
     <row r="185" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>55</v>
@@ -32392,7 +32389,7 @@
     </row>
     <row r="186" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>55</v>
@@ -32557,7 +32554,7 @@
     </row>
     <row r="187" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>65</v>
@@ -32722,7 +32719,7 @@
     </row>
     <row r="188" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>55</v>
@@ -32887,7 +32884,7 @@
     </row>
     <row r="189" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>74</v>
@@ -33052,10 +33049,10 @@
     </row>
     <row r="190" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C190" s="7">
         <v>0</v>
@@ -33217,7 +33214,7 @@
     </row>
     <row r="191" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>65</v>
@@ -33382,10 +33379,10 @@
     </row>
     <row r="192" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C192" s="7">
         <v>0</v>
@@ -33547,7 +33544,7 @@
     </row>
     <row r="193" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>55</v>
@@ -33712,7 +33709,7 @@
     </row>
     <row r="194" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>55</v>
@@ -33877,7 +33874,7 @@
     </row>
     <row r="195" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>65</v>
@@ -34042,10 +34039,10 @@
     </row>
     <row r="196" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C196" s="7">
         <v>0</v>
@@ -34207,7 +34204,7 @@
     </row>
     <row r="197" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>57</v>
@@ -34372,7 +34369,7 @@
     </row>
     <row r="198" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>63</v>
@@ -34537,7 +34534,7 @@
     </row>
     <row r="199" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>63</v>
@@ -34702,10 +34699,10 @@
     </row>
     <row r="200" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C200" s="7">
         <v>0</v>
@@ -34867,10 +34864,10 @@
     </row>
     <row r="201" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C201" s="7">
         <v>0</v>
@@ -35032,7 +35029,7 @@
     </row>
     <row r="202" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>55</v>
@@ -35197,7 +35194,7 @@
     </row>
     <row r="203" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>55</v>
@@ -35362,7 +35359,7 @@
     </row>
     <row r="204" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>74</v>
@@ -35527,7 +35524,7 @@
     </row>
     <row r="205" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>69</v>
@@ -35692,7 +35689,7 @@
     </row>
     <row r="206" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>61</v>
@@ -35857,7 +35854,7 @@
     </row>
     <row r="207" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>55</v>
@@ -36022,7 +36019,7 @@
     </row>
     <row r="208" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>59</v>
@@ -36187,7 +36184,7 @@
     </row>
     <row r="209" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>55</v>
@@ -36352,7 +36349,7 @@
     </row>
     <row r="210" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>55</v>
@@ -36517,7 +36514,7 @@
     </row>
     <row r="211" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>57</v>
@@ -36682,7 +36679,7 @@
     </row>
     <row r="212" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>65</v>
@@ -36847,7 +36844,7 @@
     </row>
     <row r="213" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>55</v>
@@ -37012,7 +37009,7 @@
     </row>
     <row r="214" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>55</v>
@@ -37177,10 +37174,10 @@
     </row>
     <row r="215" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C215" s="7">
         <v>0</v>
@@ -37342,10 +37339,10 @@
     </row>
     <row r="216" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C216" s="7">
         <v>0</v>
@@ -37507,10 +37504,10 @@
     </row>
     <row r="217" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C217" s="7">
         <v>0</v>
@@ -37672,10 +37669,10 @@
     </row>
     <row r="218" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>83</v>
+        <v>287</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C218" s="7">
         <v>0</v>
@@ -37837,7 +37834,7 @@
     </row>
     <row r="219" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>61</v>
@@ -38002,7 +37999,7 @@
     </row>
     <row r="220" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>55</v>
@@ -38167,7 +38164,7 @@
     </row>
     <row r="221" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>76</v>
@@ -38332,7 +38329,7 @@
     </row>
     <row r="222" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>55</v>
@@ -38497,10 +38494,10 @@
     </row>
     <row r="223" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C223" s="7">
         <v>0</v>
@@ -38662,7 +38659,7 @@
     </row>
     <row r="224" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>57</v>
@@ -38827,7 +38824,7 @@
     </row>
     <row r="225" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>55</v>
@@ -38992,7 +38989,7 @@
     </row>
     <row r="226" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>76</v>
@@ -39157,7 +39154,7 @@
     </row>
     <row r="227" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>63</v>
@@ -39322,7 +39319,7 @@
     </row>
     <row r="228" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>65</v>
@@ -39487,10 +39484,10 @@
     </row>
     <row r="229" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C229" s="7">
         <v>0</v>
@@ -39652,10 +39649,10 @@
     </row>
     <row r="230" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C230" s="7">
         <v>0</v>
@@ -39817,7 +39814,7 @@
     </row>
     <row r="231" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>63</v>
@@ -39982,7 +39979,7 @@
     </row>
     <row r="232" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>65</v>
@@ -40147,7 +40144,7 @@
     </row>
     <row r="233" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>61</v>
@@ -40312,7 +40309,7 @@
     </row>
     <row r="234" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>76</v>
@@ -40477,10 +40474,10 @@
     </row>
     <row r="235" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>83</v>
+        <v>304</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C235" s="7">
         <v>0</v>
@@ -40642,7 +40639,7 @@
     </row>
     <row r="236" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>65</v>
@@ -40807,7 +40804,7 @@
     </row>
     <row r="237" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>55</v>
@@ -40972,7 +40969,7 @@
     </row>
     <row r="238" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>57</v>
@@ -41137,7 +41134,7 @@
     </row>
     <row r="239" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>65</v>
@@ -41302,7 +41299,7 @@
     </row>
     <row r="240" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>63</v>
@@ -41467,7 +41464,7 @@
     </row>
     <row r="241" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>61</v>
@@ -41632,7 +41629,7 @@
     </row>
     <row r="242" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>74</v>
@@ -41797,7 +41794,7 @@
     </row>
     <row r="243" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>55</v>
@@ -41962,7 +41959,7 @@
     </row>
     <row r="244" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>65</v>
@@ -42127,7 +42124,7 @@
     </row>
     <row r="245" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>55</v>
@@ -42292,7 +42289,7 @@
     </row>
     <row r="246" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>55</v>
@@ -42457,7 +42454,7 @@
     </row>
     <row r="247" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>57</v>
@@ -42622,7 +42619,7 @@
     </row>
     <row r="248" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>55</v>
@@ -42787,10 +42784,10 @@
     </row>
     <row r="249" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C249" s="7">
         <v>0</v>
@@ -42952,10 +42949,10 @@
     </row>
     <row r="250" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C250" s="7">
         <v>0</v>
@@ -43117,7 +43114,7 @@
     </row>
     <row r="251" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>65</v>
@@ -43282,7 +43279,7 @@
     </row>
     <row r="252" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>61</v>
@@ -43447,10 +43444,10 @@
     </row>
     <row r="253" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C253" s="7">
         <v>0</v>
@@ -43612,10 +43609,10 @@
     </row>
     <row r="254" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C254" s="7">
         <v>0</v>
@@ -43777,7 +43774,7 @@
     </row>
     <row r="255" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B255" s="10" t="s">
         <v>57</v>
@@ -43942,7 +43939,7 @@
     </row>
     <row r="256" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>55</v>
@@ -44107,10 +44104,10 @@
     </row>
     <row r="257" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C257" s="7">
         <v>0</v>
@@ -44272,7 +44269,7 @@
     </row>
     <row r="258" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>61</v>
@@ -44437,7 +44434,7 @@
     </row>
     <row r="259" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>55</v>
@@ -44602,7 +44599,7 @@
     </row>
     <row r="260" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>65</v>
@@ -44767,7 +44764,7 @@
     </row>
     <row r="261" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>55</v>
@@ -44932,10 +44929,10 @@
     </row>
     <row r="262" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C262" s="7">
         <v>0</v>
@@ -45097,7 +45094,7 @@
     </row>
     <row r="263" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>74</v>
@@ -45262,10 +45259,10 @@
     </row>
     <row r="264" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C264" s="7">
         <v>0</v>
@@ -45427,7 +45424,7 @@
     </row>
     <row r="265" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>65</v>
@@ -45592,7 +45589,7 @@
     </row>
     <row r="266" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>63</v>
@@ -45757,10 +45754,10 @@
     </row>
     <row r="267" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C267" s="7">
         <v>0</v>
@@ -45922,7 +45919,7 @@
     </row>
     <row r="268" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>55</v>
@@ -46087,7 +46084,7 @@
     </row>
     <row r="269" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>74</v>
@@ -46252,7 +46249,7 @@
     </row>
     <row r="270" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>65</v>
@@ -46417,7 +46414,7 @@
     </row>
     <row r="271" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>74</v>
@@ -46582,7 +46579,7 @@
     </row>
     <row r="272" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>65</v>
@@ -46747,7 +46744,7 @@
     </row>
     <row r="273" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>65</v>
@@ -46912,7 +46909,7 @@
     </row>
     <row r="274" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>55</v>
@@ -47077,7 +47074,7 @@
     </row>
     <row r="275" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B275" s="10" t="s">
         <v>55</v>
@@ -47242,7 +47239,7 @@
     </row>
     <row r="276" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>65</v>
@@ -47407,10 +47404,10 @@
     </row>
     <row r="277" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C277" s="7">
         <v>0</v>
@@ -47572,10 +47569,10 @@
     </row>
     <row r="278" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C278" s="7">
         <v>0</v>
@@ -47737,7 +47734,7 @@
     </row>
     <row r="279" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>57</v>
@@ -47902,10 +47899,10 @@
     </row>
     <row r="280" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C280" s="7">
         <v>0</v>
@@ -48067,7 +48064,7 @@
     </row>
     <row r="281" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B281" s="17" t="s">
         <v>63</v>
@@ -48232,7 +48229,7 @@
     </row>
     <row r="282" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>63</v>
@@ -48397,10 +48394,10 @@
     </row>
     <row r="283" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C283" s="7">
         <v>0</v>
@@ -48562,7 +48559,7 @@
     </row>
     <row r="284" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>65</v>
@@ -48727,7 +48724,7 @@
     </row>
     <row r="285" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>65</v>
@@ -48892,7 +48889,7 @@
     </row>
     <row r="286" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>63</v>
@@ -49057,7 +49054,7 @@
     </row>
     <row r="287" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>65</v>
@@ -49222,7 +49219,7 @@
     </row>
     <row r="288" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>74</v>
@@ -49387,7 +49384,7 @@
     </row>
     <row r="289" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>55</v>
@@ -49552,7 +49549,7 @@
     </row>
     <row r="290" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>65</v>
@@ -49717,7 +49714,7 @@
     </row>
     <row r="291" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>55</v>
@@ -49882,10 +49879,10 @@
     </row>
     <row r="292" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C292" s="7">
         <v>0</v>
@@ -50047,7 +50044,7 @@
     </row>
     <row r="293" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>65</v>
@@ -50212,10 +50209,10 @@
     </row>
     <row r="294" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C294" s="7">
         <v>0</v>
@@ -50377,7 +50374,7 @@
     </row>
     <row r="295" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>55</v>
@@ -50542,10 +50539,10 @@
     </row>
     <row r="296" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C296" s="7">
         <v>0</v>
@@ -50707,10 +50704,10 @@
     </row>
     <row r="297" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C297" s="7">
         <v>0</v>
@@ -50872,10 +50869,10 @@
     </row>
     <row r="298" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C298" s="7">
         <v>0</v>
@@ -51037,7 +51034,7 @@
     </row>
     <row r="299" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>55</v>
@@ -51202,10 +51199,10 @@
     </row>
     <row r="300" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>83</v>
+        <v>369</v>
+      </c>
+      <c r="B300" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C300" s="7">
         <v>0</v>
@@ -51367,7 +51364,7 @@
     </row>
     <row r="301" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>76</v>
@@ -51532,7 +51529,7 @@
     </row>
     <row r="302" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>63</v>
@@ -51697,7 +51694,7 @@
     </row>
     <row r="303" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B303" s="10" t="s">
         <v>59</v>
@@ -51862,7 +51859,7 @@
     </row>
     <row r="304" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>63</v>
@@ -52027,7 +52024,7 @@
     </row>
     <row r="305" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>55</v>
@@ -52192,7 +52189,7 @@
     </row>
     <row r="306" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>74</v>
@@ -52357,7 +52354,7 @@
     </row>
     <row r="307" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>65</v>
@@ -52522,7 +52519,7 @@
     </row>
     <row r="308" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>55</v>
@@ -52687,7 +52684,7 @@
     </row>
     <row r="309" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>55</v>
@@ -52852,7 +52849,7 @@
     </row>
     <row r="310" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>57</v>
@@ -53017,10 +53014,10 @@
     </row>
     <row r="311" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B311" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="C311" s="7">
         <v>0</v>
@@ -53182,10 +53179,10 @@
     </row>
     <row r="312" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C312" s="7">
         <v>0</v>
@@ -53347,10 +53344,10 @@
     </row>
     <row r="313" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C313" s="7">
         <v>0</v>
@@ -53512,7 +53509,7 @@
     </row>
     <row r="314" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>74</v>
@@ -53677,10 +53674,10 @@
     </row>
     <row r="315" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C315" s="7">
         <v>0</v>
@@ -53842,7 +53839,7 @@
     </row>
     <row r="316" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>65</v>
@@ -54007,7 +54004,7 @@
     </row>
     <row r="317" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>55</v>
@@ -54172,7 +54169,7 @@
     </row>
     <row r="318" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>55</v>
@@ -54337,10 +54334,10 @@
     </row>
     <row r="319" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>83</v>
+        <v>388</v>
+      </c>
+      <c r="B319" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C319" s="7">
         <v>0</v>
@@ -54502,10 +54499,10 @@
     </row>
     <row r="320" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C320" s="7">
         <v>0</v>
@@ -54667,10 +54664,10 @@
     </row>
     <row r="321" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C321" s="7">
         <v>0</v>
@@ -54832,7 +54829,7 @@
     </row>
     <row r="322" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>61</v>
@@ -54997,10 +54994,10 @@
     </row>
     <row r="323" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C323" s="7">
         <v>0</v>
@@ -55162,7 +55159,7 @@
     </row>
     <row r="324" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>65</v>
@@ -55327,7 +55324,7 @@
     </row>
     <row r="325" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>55</v>
@@ -55492,10 +55489,10 @@
     </row>
     <row r="326" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C326" s="7">
         <v>0</v>
@@ -55657,10 +55654,10 @@
     </row>
     <row r="327" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C327" s="7">
         <v>0</v>
@@ -55822,10 +55819,10 @@
     </row>
     <row r="328" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C328" s="7">
         <v>0</v>
@@ -55987,7 +55984,7 @@
     </row>
     <row r="329" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>55</v>
@@ -56152,10 +56149,10 @@
     </row>
     <row r="330" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C330" s="7">
         <v>0</v>
@@ -56317,10 +56314,10 @@
     </row>
     <row r="331" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C331" s="7">
         <v>0</v>
@@ -56482,10 +56479,10 @@
     </row>
     <row r="332" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C332" s="7">
         <v>0</v>
@@ -56647,10 +56644,10 @@
     </row>
     <row r="333" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C333" s="7">
         <v>0</v>
@@ -56812,10 +56809,10 @@
     </row>
     <row r="334" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C334" s="7">
         <v>0</v>
@@ -56977,7 +56974,7 @@
     </row>
     <row r="335" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>55</v>
@@ -57142,7 +57139,7 @@
     </row>
     <row r="336" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>61</v>
@@ -57307,10 +57304,10 @@
     </row>
     <row r="337" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C337" s="7">
         <v>0</v>
@@ -57472,7 +57469,7 @@
     </row>
     <row r="338" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>61</v>
@@ -57637,7 +57634,7 @@
     </row>
     <row r="339" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>55</v>
@@ -57802,7 +57799,7 @@
     </row>
     <row r="340" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>55</v>
@@ -57967,7 +57964,7 @@
     </row>
     <row r="341" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>55</v>
@@ -58132,10 +58129,10 @@
     </row>
     <row r="342" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C342" s="7">
         <v>0</v>
@@ -58297,7 +58294,7 @@
     </row>
     <row r="343" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>63</v>
@@ -58462,7 +58459,7 @@
     </row>
     <row r="344" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>55</v>
@@ -58627,7 +58624,7 @@
     </row>
     <row r="345" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>65</v>
@@ -58792,7 +58789,7 @@
     </row>
     <row r="346" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>55</v>
@@ -58957,7 +58954,7 @@
     </row>
     <row r="347" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>55</v>
@@ -59122,7 +59119,7 @@
     </row>
     <row r="348" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>74</v>
@@ -59287,7 +59284,7 @@
     </row>
     <row r="349" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>55</v>
@@ -59452,7 +59449,7 @@
     </row>
     <row r="350" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>65</v>
@@ -59617,7 +59614,7 @@
     </row>
     <row r="351" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>63</v>
@@ -59782,7 +59779,7 @@
     </row>
     <row r="352" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>65</v>
@@ -59947,10 +59944,10 @@
     </row>
     <row r="353" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C353" s="7">
         <v>0</v>
@@ -60112,7 +60109,7 @@
     </row>
     <row r="354" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>55</v>
@@ -60277,7 +60274,7 @@
     </row>
     <row r="355" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>55</v>
@@ -60442,7 +60439,7 @@
     </row>
     <row r="356" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>69</v>
@@ -60607,7 +60604,7 @@
     </row>
     <row r="357" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>65</v>
@@ -60772,7 +60769,7 @@
     </row>
     <row r="358" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>69</v>
@@ -60937,10 +60934,10 @@
     </row>
     <row r="359" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>83</v>
+        <v>427</v>
+      </c>
+      <c r="B359" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C359" s="7">
         <v>0</v>
@@ -61102,7 +61099,7 @@
     </row>
     <row r="360" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>76</v>
@@ -61267,7 +61264,7 @@
     </row>
     <row r="361" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>65</v>
@@ -61432,7 +61429,7 @@
     </row>
     <row r="362" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>65</v>
@@ -61597,7 +61594,7 @@
     </row>
     <row r="363" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>63</v>
@@ -61762,7 +61759,7 @@
     </row>
     <row r="364" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>57</v>
@@ -61927,10 +61924,10 @@
     </row>
     <row r="365" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C365" s="7">
         <v>0</v>
@@ -62092,10 +62089,10 @@
     </row>
     <row r="366" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C366" s="7">
         <v>0</v>
@@ -62257,7 +62254,7 @@
     </row>
     <row r="367" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>65</v>
@@ -62422,7 +62419,7 @@
     </row>
     <row r="368" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>63</v>
@@ -62587,10 +62584,10 @@
     </row>
     <row r="369" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C369" s="7">
         <v>0</v>
@@ -62752,7 +62749,7 @@
     </row>
     <row r="370" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>76</v>
@@ -62917,7 +62914,7 @@
     </row>
     <row r="371" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>74</v>
@@ -63082,10 +63079,10 @@
     </row>
     <row r="372" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C372" s="7">
         <v>0</v>
@@ -63247,7 +63244,7 @@
     </row>
     <row r="373" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>76</v>
@@ -63412,7 +63409,7 @@
     </row>
     <row r="374" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>55</v>
@@ -63577,7 +63574,7 @@
     </row>
     <row r="375" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>65</v>
@@ -63742,10 +63739,10 @@
     </row>
     <row r="376" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C376" s="7">
         <v>0</v>
@@ -63907,7 +63904,7 @@
     </row>
     <row r="377" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>55</v>
@@ -64072,7 +64069,7 @@
     </row>
     <row r="378" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B378" s="10" t="s">
         <v>65</v>
@@ -64237,10 +64234,10 @@
     </row>
     <row r="379" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>83</v>
+        <v>447</v>
+      </c>
+      <c r="B379" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C379" s="7">
         <v>0</v>
@@ -64402,7 +64399,7 @@
     </row>
     <row r="380" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>63</v>
@@ -64567,7 +64564,7 @@
     </row>
     <row r="381" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>55</v>
@@ -64732,10 +64729,10 @@
     </row>
     <row r="382" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C382" s="7">
         <v>0</v>
@@ -64897,10 +64894,10 @@
     </row>
     <row r="383" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C383" s="7">
         <v>0</v>
@@ -65062,7 +65059,7 @@
     </row>
     <row r="384" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>63</v>
@@ -65227,10 +65224,10 @@
     </row>
     <row r="385" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C385" s="7">
         <v>0</v>
@@ -65392,7 +65389,7 @@
     </row>
     <row r="386" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>65</v>
@@ -65557,7 +65554,7 @@
     </row>
     <row r="387" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>74</v>
@@ -65722,7 +65719,7 @@
     </row>
     <row r="388" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>65</v>
@@ -65887,10 +65884,10 @@
     </row>
     <row r="389" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C389" s="7">
         <v>0</v>
@@ -66052,7 +66049,7 @@
     </row>
     <row r="390" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>63</v>
@@ -66217,7 +66214,7 @@
     </row>
     <row r="391" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>55</v>
@@ -66403,7 +66400,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -66418,17 +66415,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -66478,22 +66475,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -66503,127 +66500,127 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -66633,57 +66630,57 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
@@ -66698,147 +66695,147 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -66848,82 +66845,82 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -66933,642 +66930,642 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
@@ -67578,7 +67575,7 @@
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
@@ -67588,152 +67585,152 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
@@ -67743,617 +67740,617 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
@@ -68361,57 +68358,57 @@
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">

--- a/resources/database.xlsx
+++ b/resources/database.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Página2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$390</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="474">
   <si>
     <t>Projects</t>
   </si>
@@ -1798,11 +1798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC391"/>
+  <dimension ref="A1:BC390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B379" sqref="B379"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208:XFD208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36019,25 +36019,25 @@
     </row>
     <row r="208" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B208" s="10" t="s">
-        <v>59</v>
+        <v>278</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C208" s="7">
         <v>0</v>
       </c>
       <c r="D208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" s="7">
         <v>0</v>
       </c>
       <c r="G208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" s="7">
         <v>0</v>
@@ -36067,7 +36067,7 @@
         <v>0</v>
       </c>
       <c r="Q208" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R208" s="7">
         <v>0</v>
@@ -36079,7 +36079,7 @@
         <v>0</v>
       </c>
       <c r="U208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V208" s="7">
         <v>0</v>
@@ -36091,7 +36091,7 @@
         <v>0</v>
       </c>
       <c r="Y208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z208" s="7">
         <v>0</v>
@@ -36106,7 +36106,7 @@
         <v>0</v>
       </c>
       <c r="AD208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE208" s="7">
         <v>0</v>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="AR208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS208" s="7">
         <v>0</v>
@@ -36157,7 +36157,7 @@
         <v>0</v>
       </c>
       <c r="AU208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV208" s="7">
         <v>0</v>
@@ -36172,10 +36172,10 @@
         <v>0</v>
       </c>
       <c r="AZ208" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA208" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB208" s="7">
         <v>0</v>
@@ -36184,7 +36184,7 @@
     </row>
     <row r="209" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>55</v>
@@ -36193,7 +36193,7 @@
         <v>0</v>
       </c>
       <c r="D209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209" s="9">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" s="7">
         <v>0</v>
@@ -36244,7 +36244,7 @@
         <v>0</v>
       </c>
       <c r="U209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V209" s="7">
         <v>0</v>
@@ -36256,7 +36256,7 @@
         <v>0</v>
       </c>
       <c r="Y209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z209" s="7">
         <v>0</v>
@@ -36337,7 +36337,7 @@
         <v>0</v>
       </c>
       <c r="AZ209" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA209" s="7">
         <v>0</v>
@@ -36349,16 +36349,16 @@
     </row>
     <row r="210" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C210" s="7">
         <v>0</v>
       </c>
       <c r="D210" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" s="9">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" s="7">
         <v>0</v>
@@ -36409,7 +36409,7 @@
         <v>0</v>
       </c>
       <c r="U210" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V210" s="7">
         <v>0</v>
@@ -36421,7 +36421,7 @@
         <v>0</v>
       </c>
       <c r="Y210" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z210" s="7">
         <v>0</v>
@@ -36502,7 +36502,7 @@
         <v>0</v>
       </c>
       <c r="AZ210" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA210" s="7">
         <v>0</v>
@@ -36514,25 +36514,25 @@
     </row>
     <row r="211" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C211" s="7">
         <v>0</v>
       </c>
       <c r="D211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" s="7">
         <v>0</v>
       </c>
       <c r="G211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" s="7">
         <v>0</v>
@@ -36574,7 +36574,7 @@
         <v>0</v>
       </c>
       <c r="U211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V211" s="7">
         <v>0</v>
@@ -36586,22 +36586,22 @@
         <v>0</v>
       </c>
       <c r="Y211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z211" s="7">
         <v>0</v>
       </c>
       <c r="AA211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE211" s="7">
         <v>0</v>
@@ -36631,10 +36631,10 @@
         <v>0</v>
       </c>
       <c r="AN211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP211" s="7">
         <v>0</v>
@@ -36643,7 +36643,7 @@
         <v>0</v>
       </c>
       <c r="AR211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS211" s="7">
         <v>0</v>
@@ -36652,7 +36652,7 @@
         <v>0</v>
       </c>
       <c r="AU211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV211" s="7">
         <v>0</v>
@@ -36667,7 +36667,7 @@
         <v>0</v>
       </c>
       <c r="AZ211" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA211" s="7">
         <v>0</v>
@@ -36679,10 +36679,10 @@
     </row>
     <row r="212" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C212" s="7">
         <v>0</v>
@@ -36739,7 +36739,7 @@
         <v>0</v>
       </c>
       <c r="U212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V212" s="7">
         <v>0</v>
@@ -36757,16 +36757,16 @@
         <v>0</v>
       </c>
       <c r="AA212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE212" s="7">
         <v>0</v>
@@ -36796,10 +36796,10 @@
         <v>0</v>
       </c>
       <c r="AN212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP212" s="7">
         <v>0</v>
@@ -36808,7 +36808,7 @@
         <v>0</v>
       </c>
       <c r="AR212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS212" s="7">
         <v>0</v>
@@ -36817,7 +36817,7 @@
         <v>0</v>
       </c>
       <c r="AU212" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV212" s="7">
         <v>0</v>
@@ -36844,7 +36844,7 @@
     </row>
     <row r="213" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>55</v>
@@ -36853,7 +36853,7 @@
         <v>0</v>
       </c>
       <c r="D213" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213" s="9">
         <v>1</v>
@@ -36862,7 +36862,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" s="7">
         <v>0</v>
@@ -36892,7 +36892,7 @@
         <v>0</v>
       </c>
       <c r="Q213" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R213" s="7">
         <v>0</v>
@@ -36904,7 +36904,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V213" s="7">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="Y213" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z213" s="7">
         <v>0</v>
@@ -36949,7 +36949,7 @@
         <v>0</v>
       </c>
       <c r="AJ213" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK213" s="7">
         <v>0</v>
@@ -36997,7 +36997,7 @@
         <v>0</v>
       </c>
       <c r="AZ213" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA213" s="7">
         <v>0</v>
@@ -37009,10 +37009,10 @@
     </row>
     <row r="214" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C214" s="7">
         <v>0</v>
@@ -37021,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="E214" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" s="7">
         <v>0</v>
@@ -37057,7 +37057,7 @@
         <v>0</v>
       </c>
       <c r="Q214" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R214" s="7">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V214" s="7">
         <v>0</v>
@@ -37114,7 +37114,7 @@
         <v>0</v>
       </c>
       <c r="AJ214" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK214" s="7">
         <v>0</v>
@@ -37174,7 +37174,7 @@
     </row>
     <row r="215" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>114</v>
@@ -37339,7 +37339,7 @@
     </row>
     <row r="216" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>114</v>
@@ -37504,10 +37504,10 @@
     </row>
     <row r="217" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>114</v>
+        <v>287</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C217" s="7">
         <v>0</v>
@@ -37669,10 +37669,10 @@
     </row>
     <row r="218" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B218" s="17" t="s">
-        <v>121</v>
+        <v>288</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C218" s="7">
         <v>0</v>
@@ -37729,7 +37729,7 @@
         <v>0</v>
       </c>
       <c r="U218" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V218" s="7">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>0</v>
       </c>
       <c r="AN218" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO218" s="9">
         <v>0</v>
@@ -37834,16 +37834,16 @@
     </row>
     <row r="219" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C219" s="7">
         <v>0</v>
       </c>
       <c r="D219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" s="9">
         <v>0</v>
@@ -37852,7 +37852,7 @@
         <v>0</v>
       </c>
       <c r="G219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" s="7">
         <v>0</v>
@@ -37906,7 +37906,7 @@
         <v>0</v>
       </c>
       <c r="Y219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z219" s="7">
         <v>0</v>
@@ -37987,7 +37987,7 @@
         <v>0</v>
       </c>
       <c r="AZ219" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA219" s="7">
         <v>0</v>
@@ -37999,16 +37999,16 @@
     </row>
     <row r="220" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C220" s="7">
         <v>0</v>
       </c>
       <c r="D220" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220" s="9">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="G220" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" s="7">
         <v>0</v>
@@ -38059,7 +38059,7 @@
         <v>0</v>
       </c>
       <c r="U220" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V220" s="7">
         <v>0</v>
@@ -38071,7 +38071,7 @@
         <v>0</v>
       </c>
       <c r="Y220" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z220" s="7">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="AI220" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ220" s="7">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO220" s="9">
         <v>0</v>
@@ -38152,7 +38152,7 @@
         <v>0</v>
       </c>
       <c r="AZ220" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA220" s="7">
         <v>0</v>
@@ -38164,10 +38164,10 @@
     </row>
     <row r="221" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C221" s="7">
         <v>0</v>
@@ -38266,7 +38266,7 @@
         <v>0</v>
       </c>
       <c r="AI221" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ221" s="7">
         <v>0</v>
@@ -38329,10 +38329,10 @@
     </row>
     <row r="222" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C222" s="7">
         <v>0</v>
@@ -38494,10 +38494,10 @@
     </row>
     <row r="223" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C223" s="7">
         <v>0</v>
@@ -38659,10 +38659,10 @@
     </row>
     <row r="224" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C224" s="7">
         <v>0</v>
@@ -38824,10 +38824,10 @@
     </row>
     <row r="225" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C225" s="7">
         <v>0</v>
@@ -38989,10 +38989,10 @@
     </row>
     <row r="226" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C226" s="7">
         <v>0</v>
@@ -39154,16 +39154,16 @@
     </row>
     <row r="227" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C227" s="7">
         <v>0</v>
       </c>
       <c r="D227" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" s="9">
         <v>0</v>
@@ -39202,7 +39202,7 @@
         <v>0</v>
       </c>
       <c r="Q227" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R227" s="7">
         <v>0</v>
@@ -39319,16 +39319,16 @@
     </row>
     <row r="228" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C228" s="7">
         <v>0</v>
       </c>
       <c r="D228" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" s="9">
         <v>0</v>
@@ -39367,7 +39367,7 @@
         <v>0</v>
       </c>
       <c r="Q228" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R228" s="7">
         <v>0</v>
@@ -39484,10 +39484,10 @@
     </row>
     <row r="229" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C229" s="7">
         <v>0</v>
@@ -39496,7 +39496,7 @@
         <v>0</v>
       </c>
       <c r="E229" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" s="7">
         <v>0</v>
@@ -39532,7 +39532,7 @@
         <v>0</v>
       </c>
       <c r="Q229" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R229" s="7">
         <v>0</v>
@@ -39544,7 +39544,7 @@
         <v>0</v>
       </c>
       <c r="U229" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V229" s="7">
         <v>0</v>
@@ -39589,10 +39589,10 @@
         <v>0</v>
       </c>
       <c r="AJ229" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK229" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL229" s="9">
         <v>0</v>
@@ -39637,7 +39637,7 @@
         <v>0</v>
       </c>
       <c r="AZ229" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA229" s="7">
         <v>0</v>
@@ -39649,19 +39649,19 @@
     </row>
     <row r="230" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C230" s="7">
         <v>0</v>
       </c>
       <c r="D230" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" s="7">
         <v>0</v>
@@ -39706,7 +39706,7 @@
         <v>0</v>
       </c>
       <c r="T230" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U230" s="9">
         <v>1</v>
@@ -39757,7 +39757,7 @@
         <v>1</v>
       </c>
       <c r="AK230" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL230" s="9">
         <v>0</v>
@@ -39775,7 +39775,7 @@
         <v>0</v>
       </c>
       <c r="AQ230" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR230" s="9">
         <v>0</v>
@@ -39802,7 +39802,7 @@
         <v>0</v>
       </c>
       <c r="AZ230" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA230" s="7">
         <v>0</v>
@@ -39814,16 +39814,16 @@
     </row>
     <row r="231" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C231" s="7">
         <v>0</v>
       </c>
       <c r="D231" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231" s="9">
         <v>0</v>
@@ -39862,7 +39862,7 @@
         <v>0</v>
       </c>
       <c r="Q231" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R231" s="7">
         <v>0</v>
@@ -39871,10 +39871,10 @@
         <v>0</v>
       </c>
       <c r="T231" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U231" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V231" s="7">
         <v>0</v>
@@ -39919,7 +39919,7 @@
         <v>0</v>
       </c>
       <c r="AJ231" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK231" s="7">
         <v>0</v>
@@ -39940,7 +39940,7 @@
         <v>0</v>
       </c>
       <c r="AQ231" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR231" s="9">
         <v>0</v>
@@ -39979,10 +39979,10 @@
     </row>
     <row r="232" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C232" s="7">
         <v>0</v>
@@ -40144,10 +40144,10 @@
     </row>
     <row r="233" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C233" s="7">
         <v>0</v>
@@ -40309,16 +40309,16 @@
     </row>
     <row r="234" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>76</v>
+        <v>304</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C234" s="7">
         <v>0</v>
       </c>
       <c r="D234" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" s="9">
         <v>0</v>
@@ -40327,7 +40327,7 @@
         <v>0</v>
       </c>
       <c r="G234" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234" s="7">
         <v>0</v>
@@ -40369,7 +40369,7 @@
         <v>0</v>
       </c>
       <c r="U234" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V234" s="7">
         <v>0</v>
@@ -40414,7 +40414,7 @@
         <v>0</v>
       </c>
       <c r="AJ234" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK234" s="7">
         <v>0</v>
@@ -40474,16 +40474,16 @@
     </row>
     <row r="235" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B235" s="17" t="s">
-        <v>121</v>
+        <v>305</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C235" s="7">
         <v>0</v>
       </c>
       <c r="D235" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" s="9">
         <v>0</v>
@@ -40492,7 +40492,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" s="7">
         <v>0</v>
@@ -40534,7 +40534,7 @@
         <v>0</v>
       </c>
       <c r="U235" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V235" s="7">
         <v>0</v>
@@ -40639,10 +40639,10 @@
     </row>
     <row r="236" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C236" s="7">
         <v>0</v>
@@ -40744,7 +40744,7 @@
         <v>0</v>
       </c>
       <c r="AJ236" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK236" s="7">
         <v>0</v>
@@ -40804,10 +40804,10 @@
     </row>
     <row r="237" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C237" s="7">
         <v>0</v>
@@ -40864,7 +40864,7 @@
         <v>0</v>
       </c>
       <c r="U237" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V237" s="7">
         <v>0</v>
@@ -40957,7 +40957,7 @@
         <v>0</v>
       </c>
       <c r="AZ237" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA237" s="7">
         <v>0</v>
@@ -40969,10 +40969,10 @@
     </row>
     <row r="238" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C238" s="7">
         <v>0</v>
@@ -41023,13 +41023,13 @@
         <v>0</v>
       </c>
       <c r="S238" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T238" s="7">
         <v>0</v>
       </c>
       <c r="U238" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V238" s="7">
         <v>0</v>
@@ -41074,7 +41074,7 @@
         <v>0</v>
       </c>
       <c r="AJ238" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK238" s="7">
         <v>0</v>
@@ -41122,7 +41122,7 @@
         <v>0</v>
       </c>
       <c r="AZ238" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA238" s="7">
         <v>0</v>
@@ -41134,16 +41134,16 @@
     </row>
     <row r="239" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C239" s="7">
         <v>0</v>
       </c>
       <c r="D239" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" s="9">
         <v>0</v>
@@ -41188,7 +41188,7 @@
         <v>0</v>
       </c>
       <c r="S239" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T239" s="7">
         <v>0</v>
@@ -41206,7 +41206,7 @@
         <v>0</v>
       </c>
       <c r="Y239" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z239" s="7">
         <v>0</v>
@@ -41239,7 +41239,7 @@
         <v>0</v>
       </c>
       <c r="AJ239" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK239" s="7">
         <v>0</v>
@@ -41299,16 +41299,16 @@
     </row>
     <row r="240" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C240" s="7">
         <v>0</v>
       </c>
       <c r="D240" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" s="9">
         <v>0</v>
@@ -41371,7 +41371,7 @@
         <v>0</v>
       </c>
       <c r="Y240" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z240" s="7">
         <v>0</v>
@@ -41464,10 +41464,10 @@
     </row>
     <row r="241" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C241" s="7">
         <v>0</v>
@@ -41629,10 +41629,10 @@
     </row>
     <row r="242" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C242" s="7">
         <v>0</v>
@@ -41794,16 +41794,16 @@
     </row>
     <row r="243" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C243" s="7">
         <v>0</v>
       </c>
       <c r="D243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" s="9">
         <v>0</v>
@@ -41812,7 +41812,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" s="7">
         <v>0</v>
@@ -41842,7 +41842,7 @@
         <v>0</v>
       </c>
       <c r="Q243" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R243" s="7">
         <v>0</v>
@@ -41851,7 +41851,7 @@
         <v>0</v>
       </c>
       <c r="T243" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U243" s="9">
         <v>0</v>
@@ -41863,13 +41863,13 @@
         <v>0</v>
       </c>
       <c r="X243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z243" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA243" s="9">
         <v>0</v>
@@ -41881,10 +41881,10 @@
         <v>0</v>
       </c>
       <c r="AD243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE243" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF243" s="7">
         <v>0</v>
@@ -41899,7 +41899,7 @@
         <v>0</v>
       </c>
       <c r="AJ243" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK243" s="7">
         <v>0</v>
@@ -41947,7 +41947,7 @@
         <v>0</v>
       </c>
       <c r="AZ243" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA243" s="7">
         <v>0</v>
@@ -41959,10 +41959,10 @@
     </row>
     <row r="244" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C244" s="7">
         <v>0</v>
@@ -41971,10 +41971,10 @@
         <v>1</v>
       </c>
       <c r="E244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" s="9">
         <v>1</v>
@@ -41992,7 +41992,7 @@
         <v>0</v>
       </c>
       <c r="L244" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M244" s="7">
         <v>0</v>
@@ -42007,19 +42007,19 @@
         <v>0</v>
       </c>
       <c r="Q244" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R244" s="7">
         <v>0</v>
       </c>
       <c r="S244" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T244" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V244" s="7">
         <v>0</v>
@@ -42028,19 +42028,19 @@
         <v>0</v>
       </c>
       <c r="X244" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y244" s="9">
         <v>1</v>
       </c>
       <c r="Z244" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC244" s="9">
         <v>0</v>
@@ -42049,13 +42049,13 @@
         <v>1</v>
       </c>
       <c r="AE244" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF244" s="7">
         <v>0</v>
       </c>
       <c r="AG244" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH244" s="9">
         <v>0</v>
@@ -42064,7 +42064,7 @@
         <v>0</v>
       </c>
       <c r="AJ244" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK244" s="7">
         <v>0</v>
@@ -42076,7 +42076,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO244" s="9">
         <v>0</v>
@@ -42088,16 +42088,16 @@
         <v>0</v>
       </c>
       <c r="AR244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS244" s="7">
         <v>0</v>
       </c>
       <c r="AT244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU244" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV244" s="7">
         <v>0</v>
@@ -42124,7 +42124,7 @@
     </row>
     <row r="245" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>55</v>
@@ -42133,16 +42133,16 @@
         <v>0</v>
       </c>
       <c r="D245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245" s="7">
         <v>0</v>
@@ -42157,7 +42157,7 @@
         <v>0</v>
       </c>
       <c r="L245" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M245" s="7">
         <v>0</v>
@@ -42178,13 +42178,13 @@
         <v>0</v>
       </c>
       <c r="S245" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T245" s="7">
         <v>0</v>
       </c>
       <c r="U245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V245" s="7">
         <v>0</v>
@@ -42196,22 +42196,22 @@
         <v>0</v>
       </c>
       <c r="Y245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z245" s="7">
         <v>0</v>
       </c>
       <c r="AA245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC245" s="9">
         <v>0</v>
       </c>
       <c r="AD245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE245" s="7">
         <v>0</v>
@@ -42220,7 +42220,7 @@
         <v>0</v>
       </c>
       <c r="AG245" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH245" s="9">
         <v>0</v>
@@ -42241,7 +42241,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO245" s="9">
         <v>0</v>
@@ -42253,16 +42253,16 @@
         <v>0</v>
       </c>
       <c r="AR245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS245" s="7">
         <v>0</v>
       </c>
       <c r="AT245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV245" s="7">
         <v>0</v>
@@ -42277,7 +42277,7 @@
         <v>0</v>
       </c>
       <c r="AZ245" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA245" s="7">
         <v>0</v>
@@ -42289,10 +42289,10 @@
     </row>
     <row r="246" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C246" s="7">
         <v>0</v>
@@ -42349,7 +42349,7 @@
         <v>0</v>
       </c>
       <c r="U246" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V246" s="7">
         <v>0</v>
@@ -42454,10 +42454,10 @@
     </row>
     <row r="247" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C247" s="7">
         <v>0</v>
@@ -42514,7 +42514,7 @@
         <v>0</v>
       </c>
       <c r="U247" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V247" s="7">
         <v>0</v>
@@ -42619,10 +42619,10 @@
     </row>
     <row r="248" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="C248" s="7">
         <v>0</v>
@@ -42784,16 +42784,16 @@
     </row>
     <row r="249" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C249" s="7">
         <v>0</v>
       </c>
       <c r="D249" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249" s="9">
         <v>0</v>
@@ -42844,7 +42844,7 @@
         <v>0</v>
       </c>
       <c r="U249" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V249" s="7">
         <v>0</v>
@@ -42892,7 +42892,7 @@
         <v>0</v>
       </c>
       <c r="AK249" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL249" s="9">
         <v>0</v>
@@ -42949,10 +42949,10 @@
     </row>
     <row r="250" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C250" s="7">
         <v>0</v>
@@ -42997,7 +42997,7 @@
         <v>0</v>
       </c>
       <c r="Q250" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R250" s="7">
         <v>0</v>
@@ -43006,13 +43006,13 @@
         <v>0</v>
       </c>
       <c r="T250" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U250" s="9">
         <v>1</v>
       </c>
       <c r="V250" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W250" s="7">
         <v>0</v>
@@ -43024,7 +43024,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA250" s="9">
         <v>0</v>
@@ -43054,7 +43054,7 @@
         <v>0</v>
       </c>
       <c r="AJ250" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK250" s="7">
         <v>1</v>
@@ -43069,7 +43069,7 @@
         <v>0</v>
       </c>
       <c r="AO250" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP250" s="7">
         <v>0</v>
@@ -43081,7 +43081,7 @@
         <v>0</v>
       </c>
       <c r="AS250" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT250" s="9">
         <v>0</v>
@@ -43102,7 +43102,7 @@
         <v>0</v>
       </c>
       <c r="AZ250" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA250" s="7">
         <v>0</v>
@@ -43114,16 +43114,16 @@
     </row>
     <row r="251" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C251" s="7">
         <v>0</v>
       </c>
       <c r="D251" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" s="9">
         <v>0</v>
@@ -43162,7 +43162,7 @@
         <v>0</v>
       </c>
       <c r="Q251" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R251" s="7">
         <v>0</v>
@@ -43171,13 +43171,13 @@
         <v>0</v>
       </c>
       <c r="T251" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U251" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V251" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W251" s="7">
         <v>0</v>
@@ -43189,7 +43189,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA251" s="9">
         <v>0</v>
@@ -43219,10 +43219,10 @@
         <v>0</v>
       </c>
       <c r="AJ251" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK251" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL251" s="9">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="AO251" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP251" s="7">
         <v>0</v>
@@ -43246,7 +43246,7 @@
         <v>0</v>
       </c>
       <c r="AS251" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT251" s="9">
         <v>0</v>
@@ -43267,7 +43267,7 @@
         <v>0</v>
       </c>
       <c r="AZ251" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA251" s="7">
         <v>0</v>
@@ -43279,10 +43279,10 @@
     </row>
     <row r="252" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C252" s="7">
         <v>0</v>
@@ -43444,10 +43444,10 @@
     </row>
     <row r="253" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C253" s="7">
         <v>0</v>
@@ -43609,10 +43609,10 @@
     </row>
     <row r="254" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>114</v>
+        <v>324</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C254" s="7">
         <v>0</v>
@@ -43663,7 +43663,7 @@
         <v>0</v>
       </c>
       <c r="S254" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T254" s="7">
         <v>0</v>
@@ -43762,7 +43762,7 @@
         <v>0</v>
       </c>
       <c r="AZ254" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA254" s="7">
         <v>0</v>
@@ -43774,16 +43774,16 @@
     </row>
     <row r="255" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B255" s="10" t="s">
-        <v>57</v>
+        <v>325</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C255" s="7">
         <v>0</v>
       </c>
       <c r="D255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" s="9">
         <v>0</v>
@@ -43792,7 +43792,7 @@
         <v>0</v>
       </c>
       <c r="G255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" s="7">
         <v>0</v>
@@ -43822,19 +43822,19 @@
         <v>0</v>
       </c>
       <c r="Q255" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R255" s="7">
         <v>0</v>
       </c>
       <c r="S255" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T255" s="7">
         <v>0</v>
       </c>
       <c r="U255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V255" s="7">
         <v>0</v>
@@ -43846,7 +43846,7 @@
         <v>0</v>
       </c>
       <c r="Y255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z255" s="7">
         <v>0</v>
@@ -43861,7 +43861,7 @@
         <v>0</v>
       </c>
       <c r="AD255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE255" s="7">
         <v>0</v>
@@ -43891,7 +43891,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO255" s="9">
         <v>0</v>
@@ -43939,10 +43939,10 @@
     </row>
     <row r="256" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C256" s="7">
         <v>0</v>
@@ -43951,7 +43951,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" s="7">
         <v>0</v>
@@ -43987,7 +43987,7 @@
         <v>0</v>
       </c>
       <c r="Q256" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R256" s="7">
         <v>0</v>
@@ -43999,7 +43999,7 @@
         <v>0</v>
       </c>
       <c r="U256" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V256" s="7">
         <v>0</v>
@@ -44026,7 +44026,7 @@
         <v>0</v>
       </c>
       <c r="AD256" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE256" s="7">
         <v>0</v>
@@ -44047,7 +44047,7 @@
         <v>0</v>
       </c>
       <c r="AK256" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL256" s="9">
         <v>0</v>
@@ -44056,7 +44056,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO256" s="9">
         <v>0</v>
@@ -44104,25 +44104,25 @@
     </row>
     <row r="257" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C257" s="7">
         <v>0</v>
       </c>
       <c r="D257" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257" s="7">
         <v>0</v>
       </c>
       <c r="G257" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257" s="7">
         <v>0</v>
@@ -44176,7 +44176,7 @@
         <v>0</v>
       </c>
       <c r="Y257" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z257" s="7">
         <v>0</v>
@@ -44212,7 +44212,7 @@
         <v>0</v>
       </c>
       <c r="AK257" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL257" s="9">
         <v>0</v>
@@ -44257,7 +44257,7 @@
         <v>0</v>
       </c>
       <c r="AZ257" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA257" s="7">
         <v>0</v>
@@ -44269,10 +44269,10 @@
     </row>
     <row r="258" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C258" s="7">
         <v>0</v>
@@ -44434,10 +44434,10 @@
     </row>
     <row r="259" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C259" s="7">
         <v>0</v>
@@ -44599,19 +44599,19 @@
     </row>
     <row r="260" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C260" s="7">
         <v>0</v>
       </c>
       <c r="D260" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" s="7">
         <v>0</v>
@@ -44647,7 +44647,7 @@
         <v>0</v>
       </c>
       <c r="Q260" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R260" s="7">
         <v>0</v>
@@ -44659,7 +44659,7 @@
         <v>0</v>
       </c>
       <c r="U260" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V260" s="7">
         <v>0</v>
@@ -44674,7 +44674,7 @@
         <v>0</v>
       </c>
       <c r="Z260" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA260" s="9">
         <v>0</v>
@@ -44764,10 +44764,10 @@
     </row>
     <row r="261" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C261" s="7">
         <v>0</v>
@@ -44782,7 +44782,7 @@
         <v>0</v>
       </c>
       <c r="G261" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261" s="7">
         <v>0</v>
@@ -44824,7 +44824,7 @@
         <v>0</v>
       </c>
       <c r="U261" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V261" s="7">
         <v>0</v>
@@ -44836,10 +44836,10 @@
         <v>0</v>
       </c>
       <c r="Y261" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z261" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA261" s="9">
         <v>0</v>
@@ -44851,7 +44851,7 @@
         <v>0</v>
       </c>
       <c r="AD261" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE261" s="7">
         <v>0</v>
@@ -44893,16 +44893,16 @@
         <v>0</v>
       </c>
       <c r="AR261" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS261" s="7">
         <v>0</v>
       </c>
       <c r="AT261" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU261" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV261" s="7">
         <v>0</v>
@@ -44917,7 +44917,7 @@
         <v>0</v>
       </c>
       <c r="AZ261" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA261" s="7">
         <v>0</v>
@@ -44929,10 +44929,10 @@
     </row>
     <row r="262" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C262" s="7">
         <v>0</v>
@@ -44947,7 +44947,7 @@
         <v>0</v>
       </c>
       <c r="G262" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" s="7">
         <v>0</v>
@@ -44977,7 +44977,7 @@
         <v>0</v>
       </c>
       <c r="Q262" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R262" s="7">
         <v>0</v>
@@ -45016,7 +45016,7 @@
         <v>0</v>
       </c>
       <c r="AD262" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE262" s="7">
         <v>0</v>
@@ -45058,16 +45058,16 @@
         <v>0</v>
       </c>
       <c r="AR262" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS262" s="7">
         <v>0</v>
       </c>
       <c r="AT262" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU262" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV262" s="7">
         <v>0</v>
@@ -45094,19 +45094,19 @@
     </row>
     <row r="263" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="C263" s="7">
         <v>0</v>
       </c>
       <c r="D263" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F263" s="7">
         <v>0</v>
@@ -45166,7 +45166,7 @@
         <v>0</v>
       </c>
       <c r="Y263" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z263" s="7">
         <v>0</v>
@@ -45247,7 +45247,7 @@
         <v>0</v>
       </c>
       <c r="AZ263" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA263" s="7">
         <v>0</v>
@@ -45259,16 +45259,16 @@
     </row>
     <row r="264" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C264" s="7">
         <v>0</v>
       </c>
       <c r="D264" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264" s="9">
         <v>0</v>
@@ -45376,7 +45376,7 @@
         <v>0</v>
       </c>
       <c r="AN264" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO264" s="9">
         <v>0</v>
@@ -45412,7 +45412,7 @@
         <v>0</v>
       </c>
       <c r="AZ264" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA264" s="7">
         <v>0</v>
@@ -45424,16 +45424,16 @@
     </row>
     <row r="265" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C265" s="7">
         <v>0</v>
       </c>
       <c r="D265" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265" s="9">
         <v>0</v>
@@ -45541,7 +45541,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO265" s="9">
         <v>0</v>
@@ -45577,7 +45577,7 @@
         <v>0</v>
       </c>
       <c r="AZ265" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA265" s="7">
         <v>0</v>
@@ -45589,10 +45589,10 @@
     </row>
     <row r="266" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C266" s="7">
         <v>0</v>
@@ -45706,7 +45706,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO266" s="9">
         <v>0</v>
@@ -45754,10 +45754,10 @@
     </row>
     <row r="267" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C267" s="7">
         <v>0</v>
@@ -45919,10 +45919,10 @@
     </row>
     <row r="268" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C268" s="7">
         <v>0</v>
@@ -45979,7 +45979,7 @@
         <v>0</v>
       </c>
       <c r="U268" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V268" s="7">
         <v>0</v>
@@ -46024,10 +46024,10 @@
         <v>0</v>
       </c>
       <c r="AJ268" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK268" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL268" s="9">
         <v>0</v>
@@ -46036,7 +46036,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO268" s="9">
         <v>0</v>
@@ -46060,7 +46060,7 @@
         <v>0</v>
       </c>
       <c r="AV268" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW268" s="9">
         <v>0</v>
@@ -46084,25 +46084,25 @@
     </row>
     <row r="269" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C269" s="7">
         <v>0</v>
       </c>
       <c r="D269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" s="7">
         <v>0</v>
       </c>
       <c r="G269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" s="7">
         <v>0</v>
@@ -46132,7 +46132,7 @@
         <v>0</v>
       </c>
       <c r="Q269" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R269" s="7">
         <v>0</v>
@@ -46153,25 +46153,25 @@
         <v>0</v>
       </c>
       <c r="X269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z269" s="7">
         <v>0</v>
       </c>
       <c r="AA269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE269" s="7">
         <v>0</v>
@@ -46192,7 +46192,7 @@
         <v>1</v>
       </c>
       <c r="AK269" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL269" s="9">
         <v>0</v>
@@ -46201,10 +46201,10 @@
         <v>0</v>
       </c>
       <c r="AN269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP269" s="7">
         <v>0</v>
@@ -46213,34 +46213,34 @@
         <v>0</v>
       </c>
       <c r="AR269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS269" s="7">
         <v>0</v>
       </c>
       <c r="AT269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV269" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW269" s="9">
         <v>0</v>
       </c>
       <c r="AX269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ269" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA269" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB269" s="7">
         <v>0</v>
@@ -46249,25 +46249,25 @@
     </row>
     <row r="270" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C270" s="7">
         <v>0</v>
       </c>
       <c r="D270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="7">
         <v>0</v>
       </c>
       <c r="G270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270" s="7">
         <v>0</v>
@@ -46297,7 +46297,7 @@
         <v>0</v>
       </c>
       <c r="Q270" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R270" s="7">
         <v>0</v>
@@ -46309,7 +46309,7 @@
         <v>0</v>
       </c>
       <c r="U270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V270" s="7">
         <v>0</v>
@@ -46318,25 +46318,25 @@
         <v>0</v>
       </c>
       <c r="X270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z270" s="7">
         <v>0</v>
       </c>
       <c r="AA270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE270" s="7">
         <v>0</v>
@@ -46354,7 +46354,7 @@
         <v>0</v>
       </c>
       <c r="AJ270" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK270" s="7">
         <v>0</v>
@@ -46366,10 +46366,10 @@
         <v>0</v>
       </c>
       <c r="AN270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP270" s="7">
         <v>0</v>
@@ -46378,16 +46378,16 @@
         <v>0</v>
       </c>
       <c r="AR270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS270" s="7">
         <v>0</v>
       </c>
       <c r="AT270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV270" s="7">
         <v>0</v>
@@ -46396,16 +46396,16 @@
         <v>0</v>
       </c>
       <c r="AX270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ270" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA270" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB270" s="7">
         <v>0</v>
@@ -46414,10 +46414,10 @@
     </row>
     <row r="271" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C271" s="7">
         <v>0</v>
@@ -46579,7 +46579,7 @@
     </row>
     <row r="272" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>65</v>
@@ -46588,7 +46588,7 @@
         <v>0</v>
       </c>
       <c r="D272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E272" s="9">
         <v>0</v>
@@ -46597,7 +46597,7 @@
         <v>0</v>
       </c>
       <c r="G272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" s="7">
         <v>0</v>
@@ -46621,13 +46621,13 @@
         <v>0</v>
       </c>
       <c r="O272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P272" s="7">
         <v>0</v>
       </c>
       <c r="Q272" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R272" s="7">
         <v>0</v>
@@ -46639,7 +46639,7 @@
         <v>0</v>
       </c>
       <c r="U272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V272" s="7">
         <v>0</v>
@@ -46648,10 +46648,10 @@
         <v>0</v>
       </c>
       <c r="X272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z272" s="7">
         <v>0</v>
@@ -46684,7 +46684,7 @@
         <v>0</v>
       </c>
       <c r="AJ272" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK272" s="7">
         <v>0</v>
@@ -46705,7 +46705,7 @@
         <v>0</v>
       </c>
       <c r="AQ272" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR272" s="9">
         <v>0</v>
@@ -46723,7 +46723,7 @@
         <v>0</v>
       </c>
       <c r="AW272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX272" s="9">
         <v>0</v>
@@ -46732,7 +46732,7 @@
         <v>0</v>
       </c>
       <c r="AZ272" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA272" s="7">
         <v>0</v>
@@ -46744,16 +46744,16 @@
     </row>
     <row r="273" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C273" s="7">
         <v>0</v>
       </c>
       <c r="D273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273" s="9">
         <v>0</v>
@@ -46762,7 +46762,7 @@
         <v>0</v>
       </c>
       <c r="G273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273" s="7">
         <v>0</v>
@@ -46786,13 +46786,13 @@
         <v>0</v>
       </c>
       <c r="O273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P273" s="7">
         <v>0</v>
       </c>
       <c r="Q273" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R273" s="7">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>0</v>
       </c>
       <c r="U273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V273" s="7">
         <v>0</v>
@@ -46813,10 +46813,10 @@
         <v>0</v>
       </c>
       <c r="X273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z273" s="7">
         <v>0</v>
@@ -46849,10 +46849,10 @@
         <v>0</v>
       </c>
       <c r="AJ273" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK273" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL273" s="9">
         <v>0</v>
@@ -46870,7 +46870,7 @@
         <v>0</v>
       </c>
       <c r="AQ273" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR273" s="9">
         <v>0</v>
@@ -46888,7 +46888,7 @@
         <v>0</v>
       </c>
       <c r="AW273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX273" s="9">
         <v>0</v>
@@ -46897,7 +46897,7 @@
         <v>0</v>
       </c>
       <c r="AZ273" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA273" s="7">
         <v>0</v>
@@ -46909,9 +46909,9 @@
     </row>
     <row r="274" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B274" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B274" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C274" s="7">
@@ -46981,7 +46981,7 @@
         <v>0</v>
       </c>
       <c r="Y274" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z274" s="7">
         <v>0</v>
@@ -47017,7 +47017,7 @@
         <v>0</v>
       </c>
       <c r="AK274" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL274" s="9">
         <v>0</v>
@@ -47074,10 +47074,10 @@
     </row>
     <row r="275" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B275" s="10" t="s">
-        <v>55</v>
+        <v>345</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C275" s="7">
         <v>0</v>
@@ -47146,7 +47146,7 @@
         <v>0</v>
       </c>
       <c r="Y275" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z275" s="7">
         <v>0</v>
@@ -47239,10 +47239,10 @@
     </row>
     <row r="276" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C276" s="7">
         <v>0</v>
@@ -47404,10 +47404,10 @@
     </row>
     <row r="277" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C277" s="7">
         <v>0</v>
@@ -47476,7 +47476,7 @@
         <v>0</v>
       </c>
       <c r="Y277" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z277" s="7">
         <v>0</v>
@@ -47569,16 +47569,16 @@
     </row>
     <row r="278" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C278" s="7">
         <v>0</v>
       </c>
       <c r="D278" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" s="9">
         <v>0</v>
@@ -47617,10 +47617,10 @@
         <v>0</v>
       </c>
       <c r="Q278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S278" s="7">
         <v>0</v>
@@ -47632,7 +47632,7 @@
         <v>0</v>
       </c>
       <c r="V278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W278" s="7">
         <v>0</v>
@@ -47644,7 +47644,7 @@
         <v>1</v>
       </c>
       <c r="Z278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA278" s="9">
         <v>0</v>
@@ -47674,7 +47674,7 @@
         <v>0</v>
       </c>
       <c r="AJ278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK278" s="7">
         <v>0</v>
@@ -47683,10 +47683,10 @@
         <v>0</v>
       </c>
       <c r="AM278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN278" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO278" s="9">
         <v>0</v>
@@ -47695,7 +47695,7 @@
         <v>0</v>
       </c>
       <c r="AQ278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR278" s="9">
         <v>0</v>
@@ -47713,7 +47713,7 @@
         <v>0</v>
       </c>
       <c r="AW278" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX278" s="9">
         <v>0</v>
@@ -47722,28 +47722,28 @@
         <v>0</v>
       </c>
       <c r="AZ278" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA278" s="7">
         <v>0</v>
       </c>
       <c r="BB278" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC278" s="4"/>
     </row>
     <row r="279" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C279" s="7">
         <v>0</v>
       </c>
       <c r="D279" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279" s="9">
         <v>0</v>
@@ -47782,10 +47782,10 @@
         <v>0</v>
       </c>
       <c r="Q279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S279" s="7">
         <v>0</v>
@@ -47797,7 +47797,7 @@
         <v>0</v>
       </c>
       <c r="V279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W279" s="7">
         <v>0</v>
@@ -47806,10 +47806,10 @@
         <v>0</v>
       </c>
       <c r="Y279" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA279" s="9">
         <v>0</v>
@@ -47839,7 +47839,7 @@
         <v>0</v>
       </c>
       <c r="AJ279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK279" s="7">
         <v>0</v>
@@ -47848,10 +47848,10 @@
         <v>0</v>
       </c>
       <c r="AM279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN279" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO279" s="9">
         <v>0</v>
@@ -47860,7 +47860,7 @@
         <v>0</v>
       </c>
       <c r="AQ279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR279" s="9">
         <v>0</v>
@@ -47878,7 +47878,7 @@
         <v>0</v>
       </c>
       <c r="AW279" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX279" s="9">
         <v>0</v>
@@ -47887,28 +47887,28 @@
         <v>0</v>
       </c>
       <c r="AZ279" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA279" s="7">
         <v>0</v>
       </c>
       <c r="BB279" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC279" s="4"/>
     </row>
     <row r="280" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>114</v>
+        <v>350</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C280" s="7">
         <v>0</v>
       </c>
       <c r="D280" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280" s="9">
         <v>0</v>
@@ -47917,7 +47917,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" s="7">
         <v>0</v>
@@ -47947,7 +47947,7 @@
         <v>0</v>
       </c>
       <c r="Q280" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R280" s="7">
         <v>0</v>
@@ -47959,7 +47959,7 @@
         <v>0</v>
       </c>
       <c r="U280" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V280" s="7">
         <v>0</v>
@@ -47971,10 +47971,10 @@
         <v>0</v>
       </c>
       <c r="Y280" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z280" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA280" s="9">
         <v>0</v>
@@ -47986,7 +47986,7 @@
         <v>0</v>
       </c>
       <c r="AD280" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE280" s="7">
         <v>0</v>
@@ -48004,7 +48004,7 @@
         <v>0</v>
       </c>
       <c r="AJ280" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK280" s="7">
         <v>0</v>
@@ -48025,7 +48025,7 @@
         <v>0</v>
       </c>
       <c r="AQ280" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR280" s="9">
         <v>0</v>
@@ -48052,7 +48052,7 @@
         <v>0</v>
       </c>
       <c r="AZ280" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA280" s="7">
         <v>0</v>
@@ -48064,16 +48064,16 @@
     </row>
     <row r="281" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B281" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B281" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C281" s="7">
         <v>0</v>
       </c>
       <c r="D281" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E281" s="9">
         <v>0</v>
@@ -48082,7 +48082,7 @@
         <v>0</v>
       </c>
       <c r="G281" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281" s="7">
         <v>0</v>
@@ -48112,7 +48112,7 @@
         <v>0</v>
       </c>
       <c r="Q281" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R281" s="7">
         <v>0</v>
@@ -48124,7 +48124,7 @@
         <v>0</v>
       </c>
       <c r="U281" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V281" s="7">
         <v>0</v>
@@ -48136,10 +48136,10 @@
         <v>0</v>
       </c>
       <c r="Y281" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z281" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA281" s="9">
         <v>0</v>
@@ -48151,7 +48151,7 @@
         <v>0</v>
       </c>
       <c r="AD281" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE281" s="7">
         <v>0</v>
@@ -48169,7 +48169,7 @@
         <v>0</v>
       </c>
       <c r="AJ281" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK281" s="7">
         <v>0</v>
@@ -48190,7 +48190,7 @@
         <v>0</v>
       </c>
       <c r="AQ281" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR281" s="9">
         <v>0</v>
@@ -48217,7 +48217,7 @@
         <v>0</v>
       </c>
       <c r="AZ281" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA281" s="7">
         <v>0</v>
@@ -48229,10 +48229,10 @@
     </row>
     <row r="282" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C282" s="7">
         <v>0</v>
@@ -48277,7 +48277,7 @@
         <v>0</v>
       </c>
       <c r="Q282" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R282" s="7">
         <v>0</v>
@@ -48286,10 +48286,10 @@
         <v>0</v>
       </c>
       <c r="T282" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U282" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V282" s="7">
         <v>0</v>
@@ -48304,7 +48304,7 @@
         <v>0</v>
       </c>
       <c r="Z282" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA282" s="9">
         <v>0</v>
@@ -48334,7 +48334,7 @@
         <v>0</v>
       </c>
       <c r="AJ282" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK282" s="7">
         <v>0</v>
@@ -48382,7 +48382,7 @@
         <v>0</v>
       </c>
       <c r="AZ282" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA282" s="7">
         <v>0</v>
@@ -48394,25 +48394,25 @@
     </row>
     <row r="283" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C283" s="7">
         <v>0</v>
       </c>
       <c r="D283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283" s="7">
         <v>0</v>
       </c>
       <c r="G283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" s="7">
         <v>0</v>
@@ -48442,16 +48442,16 @@
         <v>0</v>
       </c>
       <c r="Q283" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R283" s="7">
         <v>0</v>
       </c>
       <c r="S283" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T283" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U283" s="9">
         <v>1</v>
@@ -48466,13 +48466,13 @@
         <v>0</v>
       </c>
       <c r="Y283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z283" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB283" s="9">
         <v>0</v>
@@ -48481,7 +48481,7 @@
         <v>0</v>
       </c>
       <c r="AD283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE283" s="7">
         <v>0</v>
@@ -48511,7 +48511,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO283" s="9">
         <v>0</v>
@@ -48544,13 +48544,13 @@
         <v>0</v>
       </c>
       <c r="AY283" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ283" s="9">
         <v>1</v>
       </c>
       <c r="BA283" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB283" s="7">
         <v>0</v>
@@ -48559,7 +48559,7 @@
     </row>
     <row r="284" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>65</v>
@@ -48568,16 +48568,16 @@
         <v>0</v>
       </c>
       <c r="D284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F284" s="7">
         <v>0</v>
       </c>
       <c r="G284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284" s="7">
         <v>0</v>
@@ -48613,31 +48613,31 @@
         <v>0</v>
       </c>
       <c r="S284" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T284" s="7">
         <v>0</v>
       </c>
       <c r="U284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V284" s="7">
         <v>0</v>
       </c>
       <c r="W284" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X284" s="9">
         <v>0</v>
       </c>
       <c r="Y284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z284" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB284" s="9">
         <v>0</v>
@@ -48646,7 +48646,7 @@
         <v>0</v>
       </c>
       <c r="AD284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE284" s="7">
         <v>0</v>
@@ -48664,7 +48664,7 @@
         <v>0</v>
       </c>
       <c r="AJ284" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK284" s="7">
         <v>0</v>
@@ -48676,7 +48676,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO284" s="9">
         <v>0</v>
@@ -48709,7 +48709,7 @@
         <v>0</v>
       </c>
       <c r="AY284" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ284" s="9">
         <v>1</v>
@@ -48724,16 +48724,16 @@
     </row>
     <row r="285" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C285" s="7">
         <v>0</v>
       </c>
       <c r="D285" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" s="9">
         <v>0</v>
@@ -48772,25 +48772,25 @@
         <v>0</v>
       </c>
       <c r="Q285" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R285" s="7">
         <v>0</v>
       </c>
       <c r="S285" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T285" s="7">
         <v>0</v>
       </c>
       <c r="U285" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V285" s="7">
         <v>0</v>
       </c>
       <c r="W285" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X285" s="9">
         <v>0</v>
@@ -48799,7 +48799,7 @@
         <v>0</v>
       </c>
       <c r="Z285" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA285" s="9">
         <v>0</v>
@@ -48877,10 +48877,10 @@
         <v>0</v>
       </c>
       <c r="AZ285" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA285" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB285" s="7">
         <v>0</v>
@@ -48889,16 +48889,16 @@
     </row>
     <row r="286" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C286" s="7">
         <v>0</v>
       </c>
       <c r="D286" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286" s="9">
         <v>0</v>
@@ -48961,7 +48961,7 @@
         <v>0</v>
       </c>
       <c r="Y286" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z286" s="7">
         <v>0</v>
@@ -49054,10 +49054,10 @@
     </row>
     <row r="287" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C287" s="7">
         <v>0</v>
@@ -49102,19 +49102,19 @@
         <v>0</v>
       </c>
       <c r="Q287" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R287" s="7">
         <v>0</v>
       </c>
       <c r="S287" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T287" s="7">
         <v>0</v>
       </c>
       <c r="U287" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V287" s="7">
         <v>0</v>
@@ -49126,7 +49126,7 @@
         <v>0</v>
       </c>
       <c r="Y287" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z287" s="7">
         <v>0</v>
@@ -49219,10 +49219,10 @@
     </row>
     <row r="288" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C288" s="7">
         <v>0</v>
@@ -49384,10 +49384,10 @@
     </row>
     <row r="289" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C289" s="7">
         <v>0</v>
@@ -49549,10 +49549,10 @@
     </row>
     <row r="290" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C290" s="7">
         <v>0</v>
@@ -49714,10 +49714,10 @@
     </row>
     <row r="291" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C291" s="7">
         <v>0</v>
@@ -49879,10 +49879,10 @@
     </row>
     <row r="292" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C292" s="7">
         <v>0</v>
@@ -50044,10 +50044,10 @@
     </row>
     <row r="293" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C293" s="7">
         <v>0</v>
@@ -50116,7 +50116,7 @@
         <v>0</v>
       </c>
       <c r="Y293" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z293" s="7">
         <v>0</v>
@@ -50209,10 +50209,10 @@
     </row>
     <row r="294" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C294" s="7">
         <v>0</v>
@@ -50281,10 +50281,10 @@
         <v>0</v>
       </c>
       <c r="Y294" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z294" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA294" s="9">
         <v>0</v>
@@ -50374,16 +50374,16 @@
     </row>
     <row r="295" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C295" s="7">
         <v>0</v>
       </c>
       <c r="D295" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E295" s="9">
         <v>0</v>
@@ -50434,7 +50434,7 @@
         <v>0</v>
       </c>
       <c r="U295" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V295" s="7">
         <v>0</v>
@@ -50449,7 +50449,7 @@
         <v>0</v>
       </c>
       <c r="Z295" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA295" s="9">
         <v>0</v>
@@ -50539,10 +50539,10 @@
     </row>
     <row r="296" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C296" s="7">
         <v>0</v>
@@ -50551,7 +50551,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" s="7">
         <v>0</v>
@@ -50587,7 +50587,7 @@
         <v>0</v>
       </c>
       <c r="Q296" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R296" s="7">
         <v>0</v>
@@ -50599,7 +50599,7 @@
         <v>0</v>
       </c>
       <c r="U296" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V296" s="7">
         <v>0</v>
@@ -50644,7 +50644,7 @@
         <v>0</v>
       </c>
       <c r="AJ296" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK296" s="7">
         <v>0</v>
@@ -50704,10 +50704,10 @@
     </row>
     <row r="297" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C297" s="7">
         <v>0</v>
@@ -50809,7 +50809,7 @@
         <v>0</v>
       </c>
       <c r="AJ297" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK297" s="7">
         <v>0</v>
@@ -50869,19 +50869,19 @@
     </row>
     <row r="298" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C298" s="7">
         <v>0</v>
       </c>
       <c r="D298" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E298" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298" s="7">
         <v>0</v>
@@ -50917,7 +50917,7 @@
         <v>0</v>
       </c>
       <c r="Q298" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R298" s="7">
         <v>0</v>
@@ -51034,10 +51034,10 @@
     </row>
     <row r="299" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>55</v>
+        <v>369</v>
+      </c>
+      <c r="B299" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C299" s="7">
         <v>0</v>
@@ -51109,7 +51109,7 @@
         <v>0</v>
       </c>
       <c r="Z299" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA299" s="9">
         <v>0</v>
@@ -51199,10 +51199,10 @@
     </row>
     <row r="300" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B300" s="17" t="s">
-        <v>121</v>
+        <v>370</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C300" s="7">
         <v>0</v>
@@ -51274,7 +51274,7 @@
         <v>0</v>
       </c>
       <c r="Z300" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA300" s="9">
         <v>0</v>
@@ -51364,10 +51364,10 @@
     </row>
     <row r="301" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C301" s="7">
         <v>0</v>
@@ -51517,7 +51517,7 @@
         <v>0</v>
       </c>
       <c r="AZ301" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA301" s="7">
         <v>0</v>
@@ -51529,19 +51529,19 @@
     </row>
     <row r="302" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>63</v>
+        <v>372</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C302" s="7">
         <v>0</v>
       </c>
       <c r="D302" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302" s="7">
         <v>0</v>
@@ -51577,7 +51577,7 @@
         <v>0</v>
       </c>
       <c r="Q302" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R302" s="7">
         <v>0</v>
@@ -51589,7 +51589,7 @@
         <v>0</v>
       </c>
       <c r="U302" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V302" s="7">
         <v>0</v>
@@ -51694,10 +51694,10 @@
     </row>
     <row r="303" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B303" s="10" t="s">
-        <v>59</v>
+        <v>373</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C303" s="7">
         <v>0</v>
@@ -51706,7 +51706,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F303" s="7">
         <v>0</v>
@@ -51742,7 +51742,7 @@
         <v>0</v>
       </c>
       <c r="Q303" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R303" s="7">
         <v>0</v>
@@ -51766,7 +51766,7 @@
         <v>0</v>
       </c>
       <c r="Y303" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z303" s="7">
         <v>0</v>
@@ -51847,7 +51847,7 @@
         <v>0</v>
       </c>
       <c r="AZ303" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA303" s="7">
         <v>0</v>
@@ -51859,10 +51859,10 @@
     </row>
     <row r="304" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C304" s="7">
         <v>0</v>
@@ -51871,22 +51871,22 @@
         <v>1</v>
       </c>
       <c r="E304" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" s="9">
         <v>0</v>
       </c>
       <c r="J304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" s="9">
         <v>0</v>
@@ -51907,16 +51907,16 @@
         <v>0</v>
       </c>
       <c r="Q304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R304" s="7">
         <v>0</v>
       </c>
       <c r="S304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U304" s="9">
         <v>1</v>
@@ -51925,7 +51925,7 @@
         <v>0</v>
       </c>
       <c r="W304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X304" s="9">
         <v>0</v>
@@ -51934,7 +51934,7 @@
         <v>1</v>
       </c>
       <c r="Z304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA304" s="9">
         <v>0</v>
@@ -51946,10 +51946,10 @@
         <v>0</v>
       </c>
       <c r="AD304" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF304" s="7">
         <v>0</v>
@@ -51964,10 +51964,10 @@
         <v>0</v>
       </c>
       <c r="AJ304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL304" s="9">
         <v>0</v>
@@ -51985,7 +51985,7 @@
         <v>0</v>
       </c>
       <c r="AQ304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR304" s="9">
         <v>0</v>
@@ -52012,46 +52012,46 @@
         <v>0</v>
       </c>
       <c r="AZ304" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA304" s="7">
         <v>0</v>
       </c>
       <c r="BB304" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC304" s="4"/>
     </row>
     <row r="305" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C305" s="7">
         <v>0</v>
       </c>
       <c r="D305" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305" s="9">
         <v>1</v>
       </c>
       <c r="F305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" s="9">
         <v>0</v>
       </c>
       <c r="J305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K305" s="9">
         <v>0</v>
@@ -52072,34 +52072,34 @@
         <v>0</v>
       </c>
       <c r="Q305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R305" s="7">
         <v>0</v>
       </c>
       <c r="S305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U305" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V305" s="7">
         <v>0</v>
       </c>
       <c r="W305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X305" s="9">
         <v>0</v>
       </c>
       <c r="Y305" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA305" s="9">
         <v>0</v>
@@ -52111,10 +52111,10 @@
         <v>0</v>
       </c>
       <c r="AD305" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF305" s="7">
         <v>0</v>
@@ -52129,7 +52129,7 @@
         <v>0</v>
       </c>
       <c r="AJ305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK305" s="7">
         <v>1</v>
@@ -52150,7 +52150,7 @@
         <v>0</v>
       </c>
       <c r="AQ305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR305" s="9">
         <v>0</v>
@@ -52177,31 +52177,31 @@
         <v>0</v>
       </c>
       <c r="AZ305" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA305" s="7">
         <v>0</v>
       </c>
       <c r="BB305" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC305" s="4"/>
     </row>
     <row r="306" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C306" s="7">
         <v>0</v>
       </c>
       <c r="D306" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F306" s="7">
         <v>0</v>
@@ -52249,7 +52249,7 @@
         <v>0</v>
       </c>
       <c r="U306" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V306" s="7">
         <v>0</v>
@@ -52261,7 +52261,7 @@
         <v>0</v>
       </c>
       <c r="Y306" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z306" s="7">
         <v>0</v>
@@ -52297,7 +52297,7 @@
         <v>0</v>
       </c>
       <c r="AK306" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL306" s="9">
         <v>0</v>
@@ -52354,16 +52354,16 @@
     </row>
     <row r="307" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C307" s="7">
         <v>0</v>
       </c>
       <c r="D307" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E307" s="9">
         <v>0</v>
@@ -52414,7 +52414,7 @@
         <v>0</v>
       </c>
       <c r="U307" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V307" s="7">
         <v>0</v>
@@ -52426,7 +52426,7 @@
         <v>0</v>
       </c>
       <c r="Y307" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z307" s="7">
         <v>0</v>
@@ -52519,7 +52519,7 @@
     </row>
     <row r="308" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>55</v>
@@ -52684,10 +52684,10 @@
     </row>
     <row r="309" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C309" s="7">
         <v>0</v>
@@ -52849,10 +52849,10 @@
     </row>
     <row r="310" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="C310" s="7">
         <v>0</v>
@@ -53014,7 +53014,7 @@
     </row>
     <row r="311" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>381</v>
@@ -53179,7 +53179,7 @@
     </row>
     <row r="312" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>381</v>
@@ -53344,10 +53344,10 @@
     </row>
     <row r="313" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="C313" s="7">
         <v>0</v>
@@ -53446,7 +53446,7 @@
         <v>0</v>
       </c>
       <c r="AI313" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ313" s="7">
         <v>0</v>
@@ -53509,16 +53509,16 @@
     </row>
     <row r="314" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C314" s="7">
         <v>0</v>
       </c>
       <c r="D314" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314" s="9">
         <v>0</v>
@@ -53527,7 +53527,7 @@
         <v>0</v>
       </c>
       <c r="G314" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H314" s="7">
         <v>0</v>
@@ -53557,7 +53557,7 @@
         <v>0</v>
       </c>
       <c r="Q314" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R314" s="7">
         <v>0</v>
@@ -53569,7 +53569,7 @@
         <v>0</v>
       </c>
       <c r="U314" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V314" s="7">
         <v>0</v>
@@ -53581,10 +53581,10 @@
         <v>0</v>
       </c>
       <c r="Y314" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z314" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA314" s="9">
         <v>0</v>
@@ -53611,10 +53611,10 @@
         <v>0</v>
       </c>
       <c r="AI314" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ314" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK314" s="7">
         <v>0</v>
@@ -53662,28 +53662,28 @@
         <v>0</v>
       </c>
       <c r="AZ314" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA314" s="7">
         <v>0</v>
       </c>
       <c r="BB314" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC314" s="4"/>
     </row>
     <row r="315" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
-        <v>385</v>
+        <v>266</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C315" s="7">
         <v>0</v>
       </c>
       <c r="D315" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315" s="9">
         <v>0</v>
@@ -53692,7 +53692,7 @@
         <v>0</v>
       </c>
       <c r="G315" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H315" s="7">
         <v>0</v>
@@ -53722,7 +53722,7 @@
         <v>0</v>
       </c>
       <c r="Q315" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R315" s="7">
         <v>0</v>
@@ -53734,7 +53734,7 @@
         <v>0</v>
       </c>
       <c r="U315" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V315" s="7">
         <v>0</v>
@@ -53746,10 +53746,10 @@
         <v>0</v>
       </c>
       <c r="Y315" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z315" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA315" s="9">
         <v>0</v>
@@ -53779,7 +53779,7 @@
         <v>0</v>
       </c>
       <c r="AJ315" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK315" s="7">
         <v>0</v>
@@ -53827,22 +53827,22 @@
         <v>0</v>
       </c>
       <c r="AZ315" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA315" s="7">
         <v>0</v>
       </c>
       <c r="BB315" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC315" s="4"/>
     </row>
     <row r="316" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C316" s="7">
         <v>0</v>
@@ -54004,7 +54004,7 @@
     </row>
     <row r="317" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>55</v>
@@ -54169,16 +54169,16 @@
     </row>
     <row r="318" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>55</v>
+        <v>388</v>
+      </c>
+      <c r="B318" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C318" s="7">
         <v>0</v>
       </c>
       <c r="D318" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" s="9">
         <v>0</v>
@@ -54229,7 +54229,7 @@
         <v>0</v>
       </c>
       <c r="U318" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V318" s="7">
         <v>0</v>
@@ -54286,7 +54286,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO318" s="9">
         <v>0</v>
@@ -54322,7 +54322,7 @@
         <v>0</v>
       </c>
       <c r="AZ318" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA318" s="7">
         <v>0</v>
@@ -54334,16 +54334,16 @@
     </row>
     <row r="319" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B319" s="17" t="s">
-        <v>121</v>
+        <v>389</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="C319" s="7">
         <v>0</v>
       </c>
       <c r="D319" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319" s="9">
         <v>0</v>
@@ -54394,7 +54394,7 @@
         <v>0</v>
       </c>
       <c r="U319" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V319" s="7">
         <v>0</v>
@@ -54451,7 +54451,7 @@
         <v>0</v>
       </c>
       <c r="AN319" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO319" s="9">
         <v>0</v>
@@ -54487,7 +54487,7 @@
         <v>0</v>
       </c>
       <c r="AZ319" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA319" s="7">
         <v>0</v>
@@ -54499,7 +54499,7 @@
     </row>
     <row r="320" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>114</v>
@@ -54514,10 +54514,10 @@
         <v>0</v>
       </c>
       <c r="F320" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G320" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320" s="7">
         <v>0</v>
@@ -54547,7 +54547,7 @@
         <v>0</v>
       </c>
       <c r="Q320" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R320" s="7">
         <v>0</v>
@@ -54559,7 +54559,7 @@
         <v>0</v>
       </c>
       <c r="U320" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V320" s="7">
         <v>0</v>
@@ -54571,7 +54571,7 @@
         <v>0</v>
       </c>
       <c r="Y320" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z320" s="7">
         <v>0</v>
@@ -54607,7 +54607,7 @@
         <v>0</v>
       </c>
       <c r="AK320" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL320" s="9">
         <v>0</v>
@@ -54652,7 +54652,7 @@
         <v>0</v>
       </c>
       <c r="AZ320" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA320" s="7">
         <v>0</v>
@@ -54664,10 +54664,10 @@
     </row>
     <row r="321" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C321" s="7">
         <v>0</v>
@@ -54679,10 +54679,10 @@
         <v>0</v>
       </c>
       <c r="F321" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G321" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H321" s="7">
         <v>0</v>
@@ -54712,7 +54712,7 @@
         <v>0</v>
       </c>
       <c r="Q321" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R321" s="7">
         <v>0</v>
@@ -54724,7 +54724,7 @@
         <v>0</v>
       </c>
       <c r="U321" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V321" s="7">
         <v>0</v>
@@ -54736,7 +54736,7 @@
         <v>0</v>
       </c>
       <c r="Y321" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z321" s="7">
         <v>0</v>
@@ -54772,7 +54772,7 @@
         <v>0</v>
       </c>
       <c r="AK321" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL321" s="9">
         <v>0</v>
@@ -54817,7 +54817,7 @@
         <v>0</v>
       </c>
       <c r="AZ321" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA321" s="7">
         <v>0</v>
@@ -54829,10 +54829,10 @@
     </row>
     <row r="322" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C322" s="7">
         <v>0</v>
@@ -54994,10 +54994,10 @@
     </row>
     <row r="323" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C323" s="7">
         <v>0</v>
@@ -55159,10 +55159,10 @@
     </row>
     <row r="324" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C324" s="7">
         <v>0</v>
@@ -55324,10 +55324,10 @@
     </row>
     <row r="325" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C325" s="7">
         <v>0</v>
@@ -55489,10 +55489,10 @@
     </row>
     <row r="326" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C326" s="7">
         <v>0</v>
@@ -55549,7 +55549,7 @@
         <v>0</v>
       </c>
       <c r="U326" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V326" s="7">
         <v>0</v>
@@ -55654,7 +55654,7 @@
     </row>
     <row r="327" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>114</v>
@@ -55699,7 +55699,7 @@
         <v>0</v>
       </c>
       <c r="P327" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q327" s="7">
         <v>0</v>
@@ -55759,7 +55759,7 @@
         <v>0</v>
       </c>
       <c r="AJ327" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK327" s="7">
         <v>0</v>
@@ -55795,7 +55795,7 @@
         <v>0</v>
       </c>
       <c r="AV327" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW327" s="9">
         <v>0</v>
@@ -55807,7 +55807,7 @@
         <v>0</v>
       </c>
       <c r="AZ327" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA327" s="7">
         <v>0</v>
@@ -55819,10 +55819,10 @@
     </row>
     <row r="328" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C328" s="7">
         <v>0</v>
@@ -55864,7 +55864,7 @@
         <v>0</v>
       </c>
       <c r="P328" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q328" s="7">
         <v>0</v>
@@ -55879,7 +55879,7 @@
         <v>0</v>
       </c>
       <c r="U328" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V328" s="7">
         <v>0</v>
@@ -55924,7 +55924,7 @@
         <v>0</v>
       </c>
       <c r="AJ328" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK328" s="7">
         <v>0</v>
@@ -55960,7 +55960,7 @@
         <v>0</v>
       </c>
       <c r="AV328" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW328" s="9">
         <v>0</v>
@@ -55972,7 +55972,7 @@
         <v>0</v>
       </c>
       <c r="AZ328" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA328" s="7">
         <v>0</v>
@@ -55984,10 +55984,10 @@
     </row>
     <row r="329" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C329" s="7">
         <v>0</v>
@@ -56149,10 +56149,10 @@
     </row>
     <row r="330" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C330" s="7">
         <v>0</v>
@@ -56314,19 +56314,19 @@
     </row>
     <row r="331" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C331" s="7">
         <v>0</v>
       </c>
       <c r="D331" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E331" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F331" s="7">
         <v>0</v>
@@ -56386,7 +56386,7 @@
         <v>0</v>
       </c>
       <c r="Y331" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z331" s="7">
         <v>0</v>
@@ -56479,10 +56479,10 @@
     </row>
     <row r="332" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C332" s="7">
         <v>0</v>
@@ -56497,7 +56497,7 @@
         <v>0</v>
       </c>
       <c r="G332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H332" s="7">
         <v>0</v>
@@ -56536,10 +56536,10 @@
         <v>0</v>
       </c>
       <c r="T332" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V332" s="7">
         <v>0</v>
@@ -56548,7 +56548,7 @@
         <v>0</v>
       </c>
       <c r="X332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y332" s="9">
         <v>1</v>
@@ -56566,7 +56566,7 @@
         <v>0</v>
       </c>
       <c r="AD332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE332" s="7">
         <v>0</v>
@@ -56584,7 +56584,7 @@
         <v>0</v>
       </c>
       <c r="AJ332" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK332" s="7">
         <v>0</v>
@@ -56596,7 +56596,7 @@
         <v>0</v>
       </c>
       <c r="AN332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO332" s="9">
         <v>0</v>
@@ -56608,7 +56608,7 @@
         <v>0</v>
       </c>
       <c r="AR332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS332" s="7">
         <v>0</v>
@@ -56617,7 +56617,7 @@
         <v>0</v>
       </c>
       <c r="AU332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV332" s="7">
         <v>0</v>
@@ -56632,7 +56632,7 @@
         <v>0</v>
       </c>
       <c r="AZ332" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA332" s="7">
         <v>0</v>
@@ -56644,25 +56644,25 @@
     </row>
     <row r="333" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C333" s="7">
         <v>0</v>
       </c>
       <c r="D333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="7">
         <v>0</v>
       </c>
       <c r="G333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H333" s="7">
         <v>0</v>
@@ -56701,10 +56701,10 @@
         <v>0</v>
       </c>
       <c r="T333" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V333" s="7">
         <v>0</v>
@@ -56713,10 +56713,10 @@
         <v>0</v>
       </c>
       <c r="X333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z333" s="7">
         <v>0</v>
@@ -56731,7 +56731,7 @@
         <v>0</v>
       </c>
       <c r="AD333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE333" s="7">
         <v>0</v>
@@ -56749,7 +56749,7 @@
         <v>0</v>
       </c>
       <c r="AJ333" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK333" s="7">
         <v>0</v>
@@ -56761,7 +56761,7 @@
         <v>0</v>
       </c>
       <c r="AN333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO333" s="9">
         <v>0</v>
@@ -56773,7 +56773,7 @@
         <v>0</v>
       </c>
       <c r="AR333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS333" s="7">
         <v>0</v>
@@ -56782,7 +56782,7 @@
         <v>0</v>
       </c>
       <c r="AU333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV333" s="7">
         <v>0</v>
@@ -56797,7 +56797,7 @@
         <v>0</v>
       </c>
       <c r="AZ333" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA333" s="7">
         <v>0</v>
@@ -56809,25 +56809,25 @@
     </row>
     <row r="334" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C334" s="7">
         <v>0</v>
       </c>
       <c r="D334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H334" s="7">
         <v>0</v>
@@ -56857,49 +56857,49 @@
         <v>0</v>
       </c>
       <c r="Q334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R334" s="7">
         <v>0</v>
       </c>
       <c r="S334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V334" s="7">
         <v>0</v>
       </c>
       <c r="W334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z334" s="7">
         <v>0</v>
       </c>
       <c r="AA334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC334" s="9">
         <v>0</v>
       </c>
       <c r="AD334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF334" s="7">
         <v>0</v>
@@ -56914,10 +56914,10 @@
         <v>0</v>
       </c>
       <c r="AJ334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL334" s="9">
         <v>0</v>
@@ -56926,7 +56926,7 @@
         <v>0</v>
       </c>
       <c r="AN334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO334" s="9">
         <v>0</v>
@@ -56935,7 +56935,7 @@
         <v>0</v>
       </c>
       <c r="AQ334" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR334" s="9">
         <v>0</v>
@@ -56959,10 +56959,10 @@
         <v>0</v>
       </c>
       <c r="AY334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ334" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA334" s="7">
         <v>0</v>
@@ -56974,25 +56974,25 @@
     </row>
     <row r="335" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C335" s="7">
         <v>0</v>
       </c>
       <c r="D335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H335" s="7">
         <v>0</v>
@@ -57022,49 +57022,49 @@
         <v>0</v>
       </c>
       <c r="Q335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R335" s="7">
         <v>0</v>
       </c>
       <c r="S335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V335" s="7">
         <v>0</v>
       </c>
       <c r="W335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z335" s="7">
         <v>0</v>
       </c>
       <c r="AA335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC335" s="9">
         <v>0</v>
       </c>
       <c r="AD335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF335" s="7">
         <v>0</v>
@@ -57079,10 +57079,10 @@
         <v>0</v>
       </c>
       <c r="AJ335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL335" s="9">
         <v>0</v>
@@ -57091,7 +57091,7 @@
         <v>0</v>
       </c>
       <c r="AN335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO335" s="9">
         <v>0</v>
@@ -57100,7 +57100,7 @@
         <v>0</v>
       </c>
       <c r="AQ335" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR335" s="9">
         <v>0</v>
@@ -57124,10 +57124,10 @@
         <v>0</v>
       </c>
       <c r="AY335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ335" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA335" s="7">
         <v>0</v>
@@ -57139,10 +57139,10 @@
     </row>
     <row r="336" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C336" s="7">
         <v>0</v>
@@ -57151,7 +57151,7 @@
         <v>0</v>
       </c>
       <c r="E336" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" s="7">
         <v>0</v>
@@ -57247,7 +57247,7 @@
         <v>0</v>
       </c>
       <c r="AK336" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL336" s="9">
         <v>0</v>
@@ -57304,10 +57304,10 @@
     </row>
     <row r="337" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C337" s="7">
         <v>0</v>
@@ -57316,7 +57316,7 @@
         <v>0</v>
       </c>
       <c r="E337" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F337" s="7">
         <v>0</v>
@@ -57412,7 +57412,7 @@
         <v>0</v>
       </c>
       <c r="AK337" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL337" s="9">
         <v>0</v>
@@ -57469,16 +57469,16 @@
     </row>
     <row r="338" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C338" s="7">
         <v>0</v>
       </c>
       <c r="D338" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338" s="9">
         <v>0</v>
@@ -57517,7 +57517,7 @@
         <v>0</v>
       </c>
       <c r="Q338" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R338" s="7">
         <v>0</v>
@@ -57634,7 +57634,7 @@
     </row>
     <row r="339" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>55</v>
@@ -57694,7 +57694,7 @@
         <v>0</v>
       </c>
       <c r="U339" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V339" s="7">
         <v>0</v>
@@ -57799,7 +57799,7 @@
     </row>
     <row r="340" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>55</v>
@@ -57808,7 +57808,7 @@
         <v>0</v>
       </c>
       <c r="D340" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E340" s="9">
         <v>0</v>
@@ -57859,7 +57859,7 @@
         <v>0</v>
       </c>
       <c r="U340" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V340" s="7">
         <v>0</v>
@@ -57964,19 +57964,19 @@
     </row>
     <row r="341" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C341" s="7">
         <v>0</v>
       </c>
       <c r="D341" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E341" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F341" s="7">
         <v>0</v>
@@ -58024,10 +58024,10 @@
         <v>0</v>
       </c>
       <c r="U341" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V341" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W341" s="7">
         <v>0</v>
@@ -58069,7 +58069,7 @@
         <v>0</v>
       </c>
       <c r="AJ341" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK341" s="7">
         <v>0</v>
@@ -58090,7 +58090,7 @@
         <v>0</v>
       </c>
       <c r="AQ341" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR341" s="9">
         <v>0</v>
@@ -58129,19 +58129,19 @@
     </row>
     <row r="342" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C342" s="7">
         <v>0</v>
       </c>
       <c r="D342" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E342" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F342" s="7">
         <v>0</v>
@@ -58177,7 +58177,7 @@
         <v>0</v>
       </c>
       <c r="Q342" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R342" s="7">
         <v>0</v>
@@ -58189,10 +58189,10 @@
         <v>0</v>
       </c>
       <c r="U342" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V342" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W342" s="7">
         <v>0</v>
@@ -58234,7 +58234,7 @@
         <v>0</v>
       </c>
       <c r="AJ342" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK342" s="7">
         <v>0</v>
@@ -58255,7 +58255,7 @@
         <v>0</v>
       </c>
       <c r="AQ342" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR342" s="9">
         <v>0</v>
@@ -58294,10 +58294,10 @@
     </row>
     <row r="343" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C343" s="7">
         <v>0</v>
@@ -58459,10 +58459,10 @@
     </row>
     <row r="344" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C344" s="7">
         <v>0</v>
@@ -58507,7 +58507,7 @@
         <v>0</v>
       </c>
       <c r="Q344" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R344" s="7">
         <v>0</v>
@@ -58624,22 +58624,22 @@
     </row>
     <row r="345" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C345" s="7">
         <v>0</v>
       </c>
       <c r="D345" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E345" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F345" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G345" s="9">
         <v>0</v>
@@ -58684,7 +58684,7 @@
         <v>0</v>
       </c>
       <c r="U345" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V345" s="7">
         <v>0</v>
@@ -58696,7 +58696,7 @@
         <v>0</v>
       </c>
       <c r="Y345" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z345" s="7">
         <v>0</v>
@@ -58729,10 +58729,10 @@
         <v>0</v>
       </c>
       <c r="AJ345" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK345" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL345" s="9">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>0</v>
       </c>
       <c r="AQ345" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR345" s="9">
         <v>0</v>
@@ -58777,7 +58777,7 @@
         <v>0</v>
       </c>
       <c r="AZ345" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA345" s="7">
         <v>0</v>
@@ -58789,7 +58789,7 @@
     </row>
     <row r="346" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>55</v>
@@ -58801,10 +58801,10 @@
         <v>1</v>
       </c>
       <c r="E346" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F346" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G346" s="9">
         <v>0</v>
@@ -58837,7 +58837,7 @@
         <v>0</v>
       </c>
       <c r="Q346" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R346" s="7">
         <v>0</v>
@@ -58849,7 +58849,7 @@
         <v>0</v>
       </c>
       <c r="U346" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V346" s="7">
         <v>0</v>
@@ -58861,7 +58861,7 @@
         <v>0</v>
       </c>
       <c r="Y346" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z346" s="7">
         <v>0</v>
@@ -58894,10 +58894,10 @@
         <v>0</v>
       </c>
       <c r="AJ346" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK346" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL346" s="9">
         <v>0</v>
@@ -58915,7 +58915,7 @@
         <v>0</v>
       </c>
       <c r="AQ346" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR346" s="9">
         <v>0</v>
@@ -58942,7 +58942,7 @@
         <v>0</v>
       </c>
       <c r="AZ346" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA346" s="7">
         <v>0</v>
@@ -58954,22 +58954,22 @@
     </row>
     <row r="347" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C347" s="7">
         <v>0</v>
       </c>
       <c r="D347" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E347" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F347" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G347" s="9">
         <v>0</v>
@@ -59002,7 +59002,7 @@
         <v>0</v>
       </c>
       <c r="Q347" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R347" s="7">
         <v>0</v>
@@ -59107,7 +59107,7 @@
         <v>0</v>
       </c>
       <c r="AZ347" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA347" s="7">
         <v>0</v>
@@ -59119,10 +59119,10 @@
     </row>
     <row r="348" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C348" s="7">
         <v>0</v>
@@ -59131,10 +59131,10 @@
         <v>0</v>
       </c>
       <c r="E348" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F348" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G348" s="9">
         <v>0</v>
@@ -59167,7 +59167,7 @@
         <v>0</v>
       </c>
       <c r="Q348" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R348" s="7">
         <v>0</v>
@@ -59179,7 +59179,7 @@
         <v>0</v>
       </c>
       <c r="U348" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V348" s="7">
         <v>0</v>
@@ -59272,7 +59272,7 @@
         <v>0</v>
       </c>
       <c r="AZ348" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA348" s="7">
         <v>0</v>
@@ -59284,25 +59284,25 @@
     </row>
     <row r="349" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C349" s="7">
         <v>0</v>
       </c>
       <c r="D349" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E349" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F349" s="7">
         <v>0</v>
       </c>
       <c r="G349" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H349" s="7">
         <v>0</v>
@@ -59332,7 +59332,7 @@
         <v>0</v>
       </c>
       <c r="Q349" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R349" s="7">
         <v>0</v>
@@ -59344,10 +59344,10 @@
         <v>0</v>
       </c>
       <c r="U349" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V349" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W349" s="7">
         <v>0</v>
@@ -59449,10 +59449,10 @@
     </row>
     <row r="350" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C350" s="7">
         <v>0</v>
@@ -59461,13 +59461,13 @@
         <v>1</v>
       </c>
       <c r="E350" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F350" s="7">
         <v>0</v>
       </c>
       <c r="G350" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H350" s="7">
         <v>0</v>
@@ -59497,7 +59497,7 @@
         <v>0</v>
       </c>
       <c r="Q350" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R350" s="7">
         <v>0</v>
@@ -59512,7 +59512,7 @@
         <v>0</v>
       </c>
       <c r="V350" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W350" s="7">
         <v>0</v>
@@ -59554,7 +59554,7 @@
         <v>0</v>
       </c>
       <c r="AJ350" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK350" s="7">
         <v>0</v>
@@ -59614,16 +59614,16 @@
     </row>
     <row r="351" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C351" s="7">
         <v>0</v>
       </c>
       <c r="D351" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351" s="9">
         <v>0</v>
@@ -59674,7 +59674,7 @@
         <v>0</v>
       </c>
       <c r="U351" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V351" s="7">
         <v>0</v>
@@ -59719,7 +59719,7 @@
         <v>0</v>
       </c>
       <c r="AJ351" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK351" s="7">
         <v>0</v>
@@ -59779,10 +59779,10 @@
     </row>
     <row r="352" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C352" s="7">
         <v>0</v>
@@ -59833,13 +59833,13 @@
         <v>0</v>
       </c>
       <c r="S352" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T352" s="7">
         <v>0</v>
       </c>
       <c r="U352" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V352" s="7">
         <v>0</v>
@@ -59944,25 +59944,25 @@
     </row>
     <row r="353" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C353" s="7">
         <v>0</v>
       </c>
       <c r="D353" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E353" s="9">
         <v>0</v>
       </c>
       <c r="F353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G353" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H353" s="7">
         <v>0</v>
@@ -59992,7 +59992,7 @@
         <v>0</v>
       </c>
       <c r="Q353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R353" s="7">
         <v>0</v>
@@ -60001,7 +60001,7 @@
         <v>1</v>
       </c>
       <c r="T353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U353" s="9">
         <v>0</v>
@@ -60016,10 +60016,10 @@
         <v>0</v>
       </c>
       <c r="Y353" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA353" s="9">
         <v>0</v>
@@ -60031,13 +60031,13 @@
         <v>0</v>
       </c>
       <c r="AD353" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG353" s="7">
         <v>0</v>
@@ -60049,16 +60049,16 @@
         <v>0</v>
       </c>
       <c r="AJ353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL353" s="9">
         <v>0</v>
       </c>
       <c r="AM353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN353" s="9">
         <v>0</v>
@@ -60070,13 +60070,13 @@
         <v>0</v>
       </c>
       <c r="AQ353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR353" s="9">
         <v>0</v>
       </c>
       <c r="AS353" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT353" s="9">
         <v>0</v>
@@ -60088,7 +60088,7 @@
         <v>0</v>
       </c>
       <c r="AW353" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX353" s="9">
         <v>0</v>
@@ -60097,7 +60097,7 @@
         <v>0</v>
       </c>
       <c r="AZ353" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA353" s="7">
         <v>0</v>
@@ -60109,7 +60109,7 @@
     </row>
     <row r="354" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>55</v>
@@ -60118,16 +60118,16 @@
         <v>0</v>
       </c>
       <c r="D354" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E354" s="9">
         <v>0</v>
       </c>
       <c r="F354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G354" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H354" s="7">
         <v>0</v>
@@ -60157,16 +60157,16 @@
         <v>0</v>
       </c>
       <c r="Q354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R354" s="7">
         <v>0</v>
       </c>
       <c r="S354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U354" s="9">
         <v>0</v>
@@ -60181,10 +60181,10 @@
         <v>0</v>
       </c>
       <c r="Y354" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA354" s="9">
         <v>0</v>
@@ -60196,13 +60196,13 @@
         <v>0</v>
       </c>
       <c r="AD354" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG354" s="7">
         <v>0</v>
@@ -60214,16 +60214,16 @@
         <v>0</v>
       </c>
       <c r="AJ354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL354" s="9">
         <v>0</v>
       </c>
       <c r="AM354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN354" s="9">
         <v>0</v>
@@ -60235,13 +60235,13 @@
         <v>0</v>
       </c>
       <c r="AQ354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR354" s="9">
         <v>0</v>
       </c>
       <c r="AS354" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT354" s="9">
         <v>0</v>
@@ -60253,7 +60253,7 @@
         <v>0</v>
       </c>
       <c r="AW354" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX354" s="9">
         <v>0</v>
@@ -60262,7 +60262,7 @@
         <v>0</v>
       </c>
       <c r="AZ354" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA354" s="7">
         <v>0</v>
@@ -60274,10 +60274,10 @@
     </row>
     <row r="355" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C355" s="7">
         <v>0</v>
@@ -60439,10 +60439,10 @@
     </row>
     <row r="356" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C356" s="7">
         <v>0</v>
@@ -60604,10 +60604,10 @@
     </row>
     <row r="357" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C357" s="7">
         <v>0</v>
@@ -60769,10 +60769,10 @@
     </row>
     <row r="358" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>69</v>
+        <v>427</v>
+      </c>
+      <c r="B358" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C358" s="7">
         <v>0</v>
@@ -60817,7 +60817,7 @@
         <v>0</v>
       </c>
       <c r="Q358" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R358" s="7">
         <v>0</v>
@@ -60895,7 +60895,7 @@
         <v>0</v>
       </c>
       <c r="AQ358" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR358" s="9">
         <v>0</v>
@@ -60922,7 +60922,7 @@
         <v>0</v>
       </c>
       <c r="AZ358" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA358" s="7">
         <v>0</v>
@@ -60934,10 +60934,10 @@
     </row>
     <row r="359" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B359" s="17" t="s">
-        <v>121</v>
+        <v>428</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C359" s="7">
         <v>0</v>
@@ -60982,7 +60982,7 @@
         <v>0</v>
       </c>
       <c r="Q359" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R359" s="7">
         <v>0</v>
@@ -61060,7 +61060,7 @@
         <v>0</v>
       </c>
       <c r="AQ359" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR359" s="9">
         <v>0</v>
@@ -61087,7 +61087,7 @@
         <v>0</v>
       </c>
       <c r="AZ359" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA359" s="7">
         <v>0</v>
@@ -61099,19 +61099,19 @@
     </row>
     <row r="360" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C360" s="7">
         <v>0</v>
       </c>
       <c r="D360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F360" s="7">
         <v>0</v>
@@ -61159,7 +61159,7 @@
         <v>0</v>
       </c>
       <c r="U360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V360" s="7">
         <v>0</v>
@@ -61171,7 +61171,7 @@
         <v>0</v>
       </c>
       <c r="Y360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z360" s="7">
         <v>0</v>
@@ -61216,7 +61216,7 @@
         <v>0</v>
       </c>
       <c r="AN360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO360" s="9">
         <v>0</v>
@@ -61234,7 +61234,7 @@
         <v>0</v>
       </c>
       <c r="AT360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU360" s="9">
         <v>0</v>
@@ -61252,7 +61252,7 @@
         <v>0</v>
       </c>
       <c r="AZ360" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA360" s="7">
         <v>0</v>
@@ -61264,7 +61264,7 @@
     </row>
     <row r="361" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>65</v>
@@ -61273,10 +61273,10 @@
         <v>0</v>
       </c>
       <c r="D361" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E361" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F361" s="7">
         <v>0</v>
@@ -61321,25 +61321,25 @@
         <v>0</v>
       </c>
       <c r="T361" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U361" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V361" s="7">
         <v>0</v>
       </c>
       <c r="W361" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X361" s="9">
         <v>0</v>
       </c>
       <c r="Y361" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z361" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA361" s="9">
         <v>0</v>
@@ -61381,7 +61381,7 @@
         <v>0</v>
       </c>
       <c r="AN361" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO361" s="9">
         <v>0</v>
@@ -61390,7 +61390,7 @@
         <v>0</v>
       </c>
       <c r="AQ361" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR361" s="9">
         <v>0</v>
@@ -61399,7 +61399,7 @@
         <v>0</v>
       </c>
       <c r="AT361" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU361" s="9">
         <v>0</v>
@@ -61417,7 +61417,7 @@
         <v>0</v>
       </c>
       <c r="AZ361" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA361" s="7">
         <v>0</v>
@@ -61429,16 +61429,16 @@
     </row>
     <row r="362" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C362" s="7">
         <v>0</v>
       </c>
       <c r="D362" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E362" s="9">
         <v>0</v>
@@ -61477,7 +61477,7 @@
         <v>0</v>
       </c>
       <c r="Q362" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R362" s="7">
         <v>0</v>
@@ -61486,25 +61486,25 @@
         <v>0</v>
       </c>
       <c r="T362" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U362" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V362" s="7">
         <v>0</v>
       </c>
       <c r="W362" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X362" s="9">
         <v>0</v>
       </c>
       <c r="Y362" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z362" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA362" s="9">
         <v>0</v>
@@ -61555,7 +61555,7 @@
         <v>0</v>
       </c>
       <c r="AQ362" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR362" s="9">
         <v>0</v>
@@ -61582,7 +61582,7 @@
         <v>0</v>
       </c>
       <c r="AZ362" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA362" s="7">
         <v>0</v>
@@ -61594,10 +61594,10 @@
     </row>
     <row r="363" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C363" s="7">
         <v>0</v>
@@ -61612,7 +61612,7 @@
         <v>0</v>
       </c>
       <c r="G363" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H363" s="7">
         <v>0</v>
@@ -61666,7 +61666,7 @@
         <v>0</v>
       </c>
       <c r="Y363" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z363" s="7">
         <v>0</v>
@@ -61747,7 +61747,7 @@
         <v>0</v>
       </c>
       <c r="AZ363" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA363" s="7">
         <v>0</v>
@@ -61759,16 +61759,16 @@
     </row>
     <row r="364" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="C364" s="7">
         <v>0</v>
       </c>
       <c r="D364" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E364" s="9">
         <v>0</v>
@@ -61777,7 +61777,7 @@
         <v>0</v>
       </c>
       <c r="G364" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" s="7">
         <v>0</v>
@@ -61807,7 +61807,7 @@
         <v>0</v>
       </c>
       <c r="Q364" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R364" s="7">
         <v>0</v>
@@ -61819,7 +61819,7 @@
         <v>0</v>
       </c>
       <c r="U364" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V364" s="7">
         <v>0</v>
@@ -61924,7 +61924,7 @@
     </row>
     <row r="365" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>114</v>
@@ -62089,16 +62089,16 @@
     </row>
     <row r="366" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C366" s="7">
         <v>0</v>
       </c>
       <c r="D366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E366" s="9">
         <v>0</v>
@@ -62107,16 +62107,16 @@
         <v>0</v>
       </c>
       <c r="G366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366" s="9">
         <v>0</v>
@@ -62131,13 +62131,13 @@
         <v>0</v>
       </c>
       <c r="O366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P366" s="7">
         <v>0</v>
       </c>
       <c r="Q366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R366" s="7">
         <v>0</v>
@@ -62149,10 +62149,10 @@
         <v>0</v>
       </c>
       <c r="U366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W366" s="7">
         <v>0</v>
@@ -62161,10 +62161,10 @@
         <v>0</v>
       </c>
       <c r="Y366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA366" s="9">
         <v>0</v>
@@ -62194,7 +62194,7 @@
         <v>0</v>
       </c>
       <c r="AJ366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK366" s="7">
         <v>0</v>
@@ -62209,13 +62209,13 @@
         <v>0</v>
       </c>
       <c r="AO366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP366" s="7">
         <v>0</v>
       </c>
       <c r="AQ366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR366" s="9">
         <v>0</v>
@@ -62233,7 +62233,7 @@
         <v>0</v>
       </c>
       <c r="AW366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX366" s="9">
         <v>0</v>
@@ -62242,28 +62242,28 @@
         <v>0</v>
       </c>
       <c r="AZ366" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA366" s="7">
         <v>0</v>
       </c>
       <c r="BB366" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC366" s="4"/>
     </row>
     <row r="367" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C367" s="7">
         <v>0</v>
       </c>
       <c r="D367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E367" s="9">
         <v>0</v>
@@ -62272,16 +62272,16 @@
         <v>0</v>
       </c>
       <c r="G367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K367" s="9">
         <v>0</v>
@@ -62296,13 +62296,13 @@
         <v>0</v>
       </c>
       <c r="O367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P367" s="7">
         <v>0</v>
       </c>
       <c r="Q367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R367" s="7">
         <v>0</v>
@@ -62317,7 +62317,7 @@
         <v>1</v>
       </c>
       <c r="V367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W367" s="7">
         <v>0</v>
@@ -62326,10 +62326,10 @@
         <v>0</v>
       </c>
       <c r="Y367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA367" s="9">
         <v>0</v>
@@ -62359,7 +62359,7 @@
         <v>0</v>
       </c>
       <c r="AJ367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK367" s="7">
         <v>0</v>
@@ -62374,13 +62374,13 @@
         <v>0</v>
       </c>
       <c r="AO367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP367" s="7">
         <v>0</v>
       </c>
       <c r="AQ367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR367" s="9">
         <v>0</v>
@@ -62398,7 +62398,7 @@
         <v>0</v>
       </c>
       <c r="AW367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX367" s="9">
         <v>0</v>
@@ -62407,22 +62407,22 @@
         <v>0</v>
       </c>
       <c r="AZ367" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA367" s="7">
         <v>0</v>
       </c>
       <c r="BB367" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC367" s="4"/>
     </row>
     <row r="368" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C368" s="7">
         <v>0</v>
@@ -62479,7 +62479,7 @@
         <v>0</v>
       </c>
       <c r="U368" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V368" s="7">
         <v>0</v>
@@ -62584,10 +62584,10 @@
     </row>
     <row r="369" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C369" s="7">
         <v>0</v>
@@ -62749,10 +62749,10 @@
     </row>
     <row r="370" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C370" s="7">
         <v>0</v>
@@ -62914,10 +62914,10 @@
     </row>
     <row r="371" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C371" s="7">
         <v>0</v>
@@ -63079,10 +63079,10 @@
     </row>
     <row r="372" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C372" s="7">
         <v>0</v>
@@ -63127,7 +63127,7 @@
         <v>0</v>
       </c>
       <c r="Q372" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R372" s="7">
         <v>0</v>
@@ -63139,7 +63139,7 @@
         <v>0</v>
       </c>
       <c r="U372" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V372" s="7">
         <v>0</v>
@@ -63151,7 +63151,7 @@
         <v>0</v>
       </c>
       <c r="Y372" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z372" s="7">
         <v>0</v>
@@ -63244,10 +63244,10 @@
     </row>
     <row r="373" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C373" s="7">
         <v>0</v>
@@ -63277,7 +63277,7 @@
         <v>0</v>
       </c>
       <c r="L373" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M373" s="7">
         <v>0</v>
@@ -63292,7 +63292,7 @@
         <v>0</v>
       </c>
       <c r="Q373" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R373" s="7">
         <v>0</v>
@@ -63304,7 +63304,7 @@
         <v>0</v>
       </c>
       <c r="U373" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V373" s="7">
         <v>0</v>
@@ -63316,7 +63316,7 @@
         <v>0</v>
       </c>
       <c r="Y373" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z373" s="7">
         <v>0</v>
@@ -63409,10 +63409,10 @@
     </row>
     <row r="374" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C374" s="7">
         <v>0</v>
@@ -63442,7 +63442,7 @@
         <v>0</v>
       </c>
       <c r="L374" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M374" s="7">
         <v>0</v>
@@ -63463,7 +63463,7 @@
         <v>0</v>
       </c>
       <c r="S374" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T374" s="7">
         <v>0</v>
@@ -63574,10 +63574,10 @@
     </row>
     <row r="375" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C375" s="7">
         <v>0</v>
@@ -63628,7 +63628,7 @@
         <v>0</v>
       </c>
       <c r="S375" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T375" s="7">
         <v>0</v>
@@ -63646,7 +63646,7 @@
         <v>0</v>
       </c>
       <c r="Y375" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z375" s="7">
         <v>0</v>
@@ -63739,10 +63739,10 @@
     </row>
     <row r="376" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C376" s="7">
         <v>0</v>
@@ -63811,7 +63811,7 @@
         <v>0</v>
       </c>
       <c r="Y376" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z376" s="7">
         <v>0</v>
@@ -63904,10 +63904,10 @@
     </row>
     <row r="377" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>55</v>
+        <v>446</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C377" s="7">
         <v>0</v>
@@ -64069,10 +64069,10 @@
     </row>
     <row r="378" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B378" s="10" t="s">
-        <v>65</v>
+        <v>447</v>
+      </c>
+      <c r="B378" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C378" s="7">
         <v>0</v>
@@ -64117,7 +64117,7 @@
         <v>0</v>
       </c>
       <c r="Q378" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R378" s="7">
         <v>0</v>
@@ -64234,25 +64234,25 @@
     </row>
     <row r="379" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B379" s="17" t="s">
-        <v>121</v>
+        <v>448</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C379" s="7">
         <v>0</v>
       </c>
       <c r="D379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F379" s="7">
         <v>0</v>
       </c>
       <c r="G379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379" s="7">
         <v>0</v>
@@ -64282,7 +64282,7 @@
         <v>0</v>
       </c>
       <c r="Q379" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R379" s="7">
         <v>0</v>
@@ -64294,7 +64294,7 @@
         <v>0</v>
       </c>
       <c r="U379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V379" s="7">
         <v>0</v>
@@ -64306,7 +64306,7 @@
         <v>0</v>
       </c>
       <c r="Y379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z379" s="7">
         <v>0</v>
@@ -64321,7 +64321,7 @@
         <v>0</v>
       </c>
       <c r="AD379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE379" s="7">
         <v>0</v>
@@ -64363,7 +64363,7 @@
         <v>0</v>
       </c>
       <c r="AR379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS379" s="7">
         <v>0</v>
@@ -64372,7 +64372,7 @@
         <v>0</v>
       </c>
       <c r="AU379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV379" s="7">
         <v>0</v>
@@ -64387,7 +64387,7 @@
         <v>0</v>
       </c>
       <c r="AZ379" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA379" s="7">
         <v>0</v>
@@ -64399,25 +64399,25 @@
     </row>
     <row r="380" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C380" s="7">
         <v>0</v>
       </c>
       <c r="D380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380" s="7">
         <v>0</v>
       </c>
       <c r="G380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H380" s="7">
         <v>0</v>
@@ -64459,7 +64459,7 @@
         <v>0</v>
       </c>
       <c r="U380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V380" s="7">
         <v>0</v>
@@ -64471,7 +64471,7 @@
         <v>0</v>
       </c>
       <c r="Y380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z380" s="7">
         <v>0</v>
@@ -64486,7 +64486,7 @@
         <v>0</v>
       </c>
       <c r="AD380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE380" s="7">
         <v>0</v>
@@ -64528,7 +64528,7 @@
         <v>0</v>
       </c>
       <c r="AR380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS380" s="7">
         <v>0</v>
@@ -64537,7 +64537,7 @@
         <v>0</v>
       </c>
       <c r="AU380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV380" s="7">
         <v>0</v>
@@ -64552,7 +64552,7 @@
         <v>0</v>
       </c>
       <c r="AZ380" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA380" s="7">
         <v>0</v>
@@ -64564,10 +64564,10 @@
     </row>
     <row r="381" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C381" s="7">
         <v>0</v>
@@ -64729,16 +64729,16 @@
     </row>
     <row r="382" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C382" s="7">
         <v>0</v>
       </c>
       <c r="D382" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E382" s="9">
         <v>0</v>
@@ -64894,10 +64894,10 @@
     </row>
     <row r="383" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C383" s="7">
         <v>0</v>
@@ -65047,7 +65047,7 @@
         <v>0</v>
       </c>
       <c r="AZ383" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA383" s="7">
         <v>0</v>
@@ -65059,16 +65059,16 @@
     </row>
     <row r="384" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C384" s="7">
         <v>0</v>
       </c>
       <c r="D384" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E384" s="9">
         <v>0</v>
@@ -65212,7 +65212,7 @@
         <v>0</v>
       </c>
       <c r="AZ384" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA384" s="7">
         <v>0</v>
@@ -65224,34 +65224,34 @@
     </row>
     <row r="385" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C385" s="7">
         <v>0</v>
       </c>
       <c r="D385" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E385" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G385" s="9">
         <v>0</v>
       </c>
       <c r="H385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I385" s="9">
         <v>0</v>
       </c>
       <c r="J385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K385" s="9">
         <v>0</v>
@@ -65269,37 +65269,37 @@
         <v>0</v>
       </c>
       <c r="P385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T385" s="7">
         <v>0</v>
       </c>
       <c r="U385" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X385" s="9">
         <v>0</v>
       </c>
       <c r="Y385" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA385" s="9">
         <v>0</v>
@@ -65314,7 +65314,7 @@
         <v>0</v>
       </c>
       <c r="AE385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF385" s="7">
         <v>0</v>
@@ -65329,7 +65329,7 @@
         <v>0</v>
       </c>
       <c r="AJ385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK385" s="7">
         <v>0</v>
@@ -65350,13 +65350,13 @@
         <v>0</v>
       </c>
       <c r="AQ385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR385" s="9">
         <v>0</v>
       </c>
       <c r="AS385" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT385" s="9">
         <v>0</v>
@@ -65377,7 +65377,7 @@
         <v>0</v>
       </c>
       <c r="AZ385" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA385" s="7">
         <v>0</v>
@@ -65389,10 +65389,10 @@
     </row>
     <row r="386" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C386" s="7">
         <v>0</v>
@@ -65404,19 +65404,19 @@
         <v>1</v>
       </c>
       <c r="F386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G386" s="9">
         <v>0</v>
       </c>
       <c r="H386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" s="9">
         <v>0</v>
       </c>
       <c r="J386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K386" s="9">
         <v>0</v>
@@ -65434,37 +65434,37 @@
         <v>0</v>
       </c>
       <c r="P386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T386" s="7">
         <v>0</v>
       </c>
       <c r="U386" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X386" s="9">
         <v>0</v>
       </c>
       <c r="Y386" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA386" s="9">
         <v>0</v>
@@ -65479,7 +65479,7 @@
         <v>0</v>
       </c>
       <c r="AE386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF386" s="7">
         <v>0</v>
@@ -65494,7 +65494,7 @@
         <v>0</v>
       </c>
       <c r="AJ386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK386" s="7">
         <v>0</v>
@@ -65506,7 +65506,7 @@
         <v>0</v>
       </c>
       <c r="AN386" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO386" s="9">
         <v>0</v>
@@ -65515,13 +65515,13 @@
         <v>0</v>
       </c>
       <c r="AQ386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR386" s="9">
         <v>0</v>
       </c>
       <c r="AS386" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT386" s="9">
         <v>0</v>
@@ -65542,7 +65542,7 @@
         <v>0</v>
       </c>
       <c r="AZ386" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA386" s="7">
         <v>0</v>
@@ -65554,10 +65554,10 @@
     </row>
     <row r="387" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C387" s="7">
         <v>0</v>
@@ -65566,7 +65566,7 @@
         <v>1</v>
       </c>
       <c r="E387" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387" s="7">
         <v>0</v>
@@ -65602,22 +65602,22 @@
         <v>0</v>
       </c>
       <c r="Q387" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R387" s="7">
         <v>0</v>
       </c>
       <c r="S387" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T387" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U387" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V387" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W387" s="7">
         <v>0</v>
@@ -65659,7 +65659,7 @@
         <v>0</v>
       </c>
       <c r="AJ387" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK387" s="7">
         <v>0</v>
@@ -65668,10 +65668,10 @@
         <v>0</v>
       </c>
       <c r="AM387" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN387" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO387" s="9">
         <v>0</v>
@@ -65680,7 +65680,7 @@
         <v>0</v>
       </c>
       <c r="AQ387" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR387" s="9">
         <v>0</v>
@@ -65707,7 +65707,7 @@
         <v>0</v>
       </c>
       <c r="AZ387" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA387" s="7">
         <v>0</v>
@@ -65719,10 +65719,10 @@
     </row>
     <row r="388" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C388" s="7">
         <v>0</v>
@@ -65767,22 +65767,22 @@
         <v>0</v>
       </c>
       <c r="Q388" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R388" s="7">
         <v>0</v>
       </c>
       <c r="S388" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T388" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U388" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V388" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W388" s="7">
         <v>0</v>
@@ -65824,7 +65824,7 @@
         <v>0</v>
       </c>
       <c r="AJ388" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK388" s="7">
         <v>0</v>
@@ -65833,7 +65833,7 @@
         <v>0</v>
       </c>
       <c r="AM388" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN388" s="9">
         <v>0</v>
@@ -65872,7 +65872,7 @@
         <v>0</v>
       </c>
       <c r="AZ388" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA388" s="7">
         <v>0</v>
@@ -65884,16 +65884,16 @@
     </row>
     <row r="389" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C389" s="7">
         <v>0</v>
       </c>
       <c r="D389" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389" s="9">
         <v>0</v>
@@ -66010,7 +66010,7 @@
         <v>0</v>
       </c>
       <c r="AQ389" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR389" s="9">
         <v>0</v>
@@ -66049,10 +66049,10 @@
     </row>
     <row r="390" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C390" s="7">
         <v>0</v>
@@ -66212,173 +66212,8 @@
       </c>
       <c r="BC390" s="4"/>
     </row>
-    <row r="391" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B391" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C391" s="7">
-        <v>0</v>
-      </c>
-      <c r="D391" s="9">
-        <v>0</v>
-      </c>
-      <c r="E391" s="9">
-        <v>0</v>
-      </c>
-      <c r="F391" s="7">
-        <v>0</v>
-      </c>
-      <c r="G391" s="9">
-        <v>0</v>
-      </c>
-      <c r="H391" s="7">
-        <v>0</v>
-      </c>
-      <c r="I391" s="9">
-        <v>0</v>
-      </c>
-      <c r="J391" s="7">
-        <v>0</v>
-      </c>
-      <c r="K391" s="9">
-        <v>0</v>
-      </c>
-      <c r="L391" s="7">
-        <v>0</v>
-      </c>
-      <c r="M391" s="7">
-        <v>0</v>
-      </c>
-      <c r="N391" s="9">
-        <v>0</v>
-      </c>
-      <c r="O391" s="9">
-        <v>0</v>
-      </c>
-      <c r="P391" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q391" s="7">
-        <v>0</v>
-      </c>
-      <c r="R391" s="7">
-        <v>0</v>
-      </c>
-      <c r="S391" s="7">
-        <v>0</v>
-      </c>
-      <c r="T391" s="7">
-        <v>0</v>
-      </c>
-      <c r="U391" s="9">
-        <v>0</v>
-      </c>
-      <c r="V391" s="7">
-        <v>0</v>
-      </c>
-      <c r="W391" s="7">
-        <v>0</v>
-      </c>
-      <c r="X391" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y391" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV391" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AX391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY391" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ391" s="9">
-        <v>0</v>
-      </c>
-      <c r="BA391" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB391" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC391" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BC391"/>
+  <autoFilter ref="A1:BC390"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/resources/database.xlsx
+++ b/resources/database.xlsx
@@ -471,262 +471,262 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>('SapHana', 'database')</t>
+          <t>SapHana</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>('Realm', 'database')</t>
+          <t>Realm</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>('SAP SQL Anywhere', 'database')</t>
+          <t>SAP SQL Anywhere</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>('FileMaker', 'database')</t>
+          <t>FileMaker</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>('Virtuoso', 'database')</t>
+          <t>Virtuoso</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>('ArangoDB', 'database')</t>
+          <t>ArangoDB</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>('Informix', 'database')</t>
+          <t>Informix</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>('HyperSQL', 'database')</t>
+          <t>HyperSQL</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>('CouchDB', 'database')</t>
+          <t>CouchDB</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>('Riak KV', 'database')</t>
+          <t>Riak KV</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>('Ignite', 'database')</t>
+          <t>Ignite</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>('Virtuoso-Sql', 'database')</t>
+          <t>Virtuoso-Sql</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>('Neo4j', 'database')</t>
+          <t>Neo4j</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>('Singlestore', 'database')</t>
+          <t>Singlestore</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>('Snowflake', 'database')</t>
+          <t>Snowflake</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>('Ignite-Sql', 'database')</t>
+          <t>Ignite-Sql</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>('MarkLogic', 'database')</t>
+          <t>MarkLogic</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>('Hazelcast', 'database')</t>
+          <t>Hazelcast</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>('GoogleCloudFilestore', 'database')</t>
+          <t>GoogleCloudFilestore</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>('Influx DB', 'database')</t>
+          <t>Influx DB</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>('H2', 'database')</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>('Ignite-NoSql', 'database')</t>
+          <t>Ignite-NoSql</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>('Interbase', 'database')</t>
+          <t>Interbase</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>('Teradata', 'database')</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>('Oracle', 'database')</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>('Impala', 'database')</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>('Microsoft Azure CosmosDB', 'database')</t>
+          <t>Microsoft Azure CosmosDB</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>('MySQL_Maria DB', 'database')</t>
+          <t>MySQL_Maria DB</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>('MS Access', 'database')</t>
+          <t>MS Access</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>('Microsoft Azure Table Storage', 'database')</t>
+          <t>Microsoft Azure Table Storage</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>('Aerospike', 'database')</t>
+          <t>Aerospike</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>('IBM DB2', 'database')</t>
+          <t>IBM DB2</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>('DynamoDB', 'database')</t>
+          <t>DynamoDB</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>('Vertica', 'database')</t>
+          <t>Vertica</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>('Ingres', 'database')</t>
+          <t>Ingres</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>('MongoDB', 'database')</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>('MS SQL Server_Microsoft Azure SQL Database', 'database')</t>
+          <t>MS SQL Server_Microsoft Azure SQL Database</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>('Google Cloud Datastore', 'database')</t>
+          <t>Google Cloud Datastore</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>('Firebase Realtime', 'database')</t>
+          <t>Firebase Realtime</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>('SQLite', 'database')</t>
+          <t>SQLite</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>('PostgreSQL_ CockroachDB', 'database')</t>
+          <t>PostgreSQL_ CockroachDB</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>('SAP Adaptive Server', 'database')</t>
+          <t>SAP Adaptive Server</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>('ClickHouse', 'database')</t>
+          <t>ClickHouse</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>('Kdb+', 'database')</t>
+          <t>Kdb+</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>('Virtuoso-NoSql', 'database')</t>
+          <t>Virtuoso-NoSql</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>('HBase', 'database')</t>
+          <t>HBase</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>('Firebird', 'database')</t>
+          <t>Firebird</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>('Cassandra', 'database')</t>
+          <t>Cassandra</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>('Couchbase', 'database')</t>
+          <t>Couchbase</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>('Etcd', 'database')</t>
+          <t>Etcd</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>('PostGIS', 'database')</t>
+          <t>PostGIS</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>('Redis', 'database')</t>
+          <t>Redis</t>
         </is>
       </c>
     </row>

--- a/resources/database.xlsx
+++ b/resources/database.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG362"/>
+  <dimension ref="A1:BG363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68247,7 +68247,194 @@
         <v>0</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>liferay</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>liferay-portal</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>38220df7f113ab58af84b3297d81db6bb40d3320</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30:11+00:00</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0</v>
+      </c>
+      <c r="O363" t="n">
+        <v>1</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0</v>
+      </c>
+      <c r="U363" t="n">
+        <v>0</v>
+      </c>
+      <c r="V363" t="n">
+        <v>0</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0</v>
+      </c>
+      <c r="X363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/database.xlsx
+++ b/resources/database.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>GoogleCloudFilestore</t>
+          <t>GoogleCloudFirestore</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="AW30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -24518,7 +24518,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -24635,7 +24635,7 @@
         <v>1</v>
       </c>
       <c r="AW129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX129" t="n">
         <v>0</v>
@@ -25079,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>1</v>
       </c>
       <c r="AW135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX135" t="n">
         <v>0</v>
@@ -31813,7 +31813,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -31930,7 +31930,7 @@
         <v>1</v>
       </c>
       <c r="AW168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX168" t="n">
         <v>0</v>
@@ -50330,7 +50330,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -60804,7 +60804,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K323" t="n">
         <v>0</v>
@@ -60921,7 +60921,7 @@
         <v>1</v>
       </c>
       <c r="AW323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX323" t="n">
         <v>0</v>
@@ -66975,7 +66975,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K356" t="n">
         <v>0</v>
@@ -68284,7 +68284,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K363" t="n">
         <v>0</v>
